--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\BObIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\BObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9CC3A-C62E-48FC-95A7-FE6272C12B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAD8855-3287-463B-A3BD-EEBE66FD3ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1005" windowWidth="24090" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="780" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD TTL" sheetId="7" r:id="rId2"/>
     <sheet name="OECD Chem Pharma Split" sheetId="8" r:id="rId3"/>
-    <sheet name="BObIC" sheetId="2" r:id="rId4"/>
+    <sheet name="BLS BEA Mining" sheetId="9" r:id="rId4"/>
+    <sheet name="BObIC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -644,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="236">
   <si>
     <t>Source:</t>
   </si>
@@ -679,9 +680,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -1247,6 +1245,114 @@
   </si>
   <si>
     <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+  </si>
+  <si>
+    <t>Coal Mining vs. Oil &amp; Gas Extraction</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t>Current Employment Statistics (Dec 2015 release)</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/home.htm</t>
+  </si>
+  <si>
+    <t>Table B-1a</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>Industry File Download</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/iTable/iTable.cfm?isuri=1&amp;reqid=151&amp;step=1</t>
+  </si>
+  <si>
+    <t>Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>Underlying Detail: Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>Components of Value Added</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>Data for Year 2015</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Coal Mining</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>All Mining other than Oil and Gas</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>NAICS Code</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>ISIC Code</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Employment (EEs)</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/table1a_201512.pdf</t>
+  </si>
+  <si>
+    <t>Gross Output</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/UGdpxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/GDPxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>Value Added</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/CompByInd/ComponentsOfVa.xlsx</t>
+  </si>
+  <si>
+    <t>Compensation of employees</t>
+  </si>
+  <si>
+    <t>Taxes on production and imports less subsidies</t>
+  </si>
+  <si>
+    <t>Gross operating surplus</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1464,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1404,6 +1510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1586,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1514,66 +1626,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1610,6 +1665,80 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1892,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1903,15 +2032,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>197</v>
+      <c r="B3" s="31" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,22 +2055,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
-        <v>193</v>
+      <c r="B10" s="31" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,69 +2085,135 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="B41" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="B26" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{9DC357C1-9C26-417B-90ED-D6935825FE58}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{C914AE0B-59C0-465D-B416-7732EA12FF11}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{1897C6A5-34CE-40C2-BF49-AB13E06B7D82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2059,365 +2254,365 @@
     </row>
     <row r="2" spans="1:47" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="41"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="36"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="36"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="26"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="21"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="21"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="36"/>
+    </row>
+    <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="21"/>
-    </row>
-    <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AF7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AG7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AH7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AL7" s="8" t="s">
+      <c r="AM7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AM7" s="8" t="s">
+      <c r="AN7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AN7" s="8" t="s">
+      <c r="AO7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AO7" s="8" t="s">
+      <c r="AP7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AP7" s="8" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AQ7" s="8" t="s">
+      <c r="AR7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AR7" s="8" t="s">
+      <c r="AS7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AS7" s="8" t="s">
+      <c r="AT7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AT7" s="8" t="s">
+      <c r="AU7" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -2560,7 +2755,7 @@
     </row>
     <row r="9" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -2703,7 +2898,7 @@
     </row>
     <row r="10" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
@@ -2846,7 +3041,7 @@
     </row>
     <row r="11" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -2989,7 +3184,7 @@
     </row>
     <row r="12" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -3132,7 +3327,7 @@
     </row>
     <row r="13" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -3275,7 +3470,7 @@
     </row>
     <row r="14" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -3418,7 +3613,7 @@
     </row>
     <row r="15" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
@@ -3561,7 +3756,7 @@
     </row>
     <row r="16" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -3704,7 +3899,7 @@
     </row>
     <row r="17" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -3847,7 +4042,7 @@
     </row>
     <row r="18" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>9</v>
@@ -3990,7 +4185,7 @@
     </row>
     <row r="19" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>9</v>
@@ -4133,7 +4328,7 @@
     </row>
     <row r="20" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
@@ -4276,7 +4471,7 @@
     </row>
     <row r="21" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>9</v>
@@ -4419,7 +4614,7 @@
     </row>
     <row r="22" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>9</v>
@@ -4562,7 +4757,7 @@
     </row>
     <row r="23" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>9</v>
@@ -4705,7 +4900,7 @@
     </row>
     <row r="24" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>9</v>
@@ -4848,7 +5043,7 @@
     </row>
     <row r="25" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>9</v>
@@ -4991,7 +5186,7 @@
     </row>
     <row r="26" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -5134,7 +5329,7 @@
     </row>
     <row r="27" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>9</v>
@@ -5277,7 +5472,7 @@
     </row>
     <row r="28" spans="1:47" ht="42" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>9</v>
@@ -5420,7 +5615,7 @@
     </row>
     <row r="29" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>9</v>
@@ -5563,7 +5758,7 @@
     </row>
     <row r="30" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>9</v>
@@ -5706,7 +5901,7 @@
     </row>
     <row r="31" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -5849,7 +6044,7 @@
     </row>
     <row r="32" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>9</v>
@@ -5992,7 +6187,7 @@
     </row>
     <row r="33" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>9</v>
@@ -6135,7 +6330,7 @@
     </row>
     <row r="34" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>9</v>
@@ -6278,7 +6473,7 @@
     </row>
     <row r="35" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>9</v>
@@ -6421,7 +6616,7 @@
     </row>
     <row r="36" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>9</v>
@@ -6564,7 +6759,7 @@
     </row>
     <row r="37" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>9</v>
@@ -6707,7 +6902,7 @@
     </row>
     <row r="38" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -6850,7 +7045,7 @@
     </row>
     <row r="39" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>9</v>
@@ -6993,7 +7188,7 @@
     </row>
     <row r="40" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>9</v>
@@ -7136,7 +7331,7 @@
     </row>
     <row r="41" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>9</v>
@@ -7279,7 +7474,7 @@
     </row>
     <row r="42" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>9</v>
@@ -7422,7 +7617,7 @@
     </row>
     <row r="43" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>9</v>
@@ -7565,7 +7760,7 @@
     </row>
     <row r="44" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -7708,7 +7903,7 @@
     </row>
     <row r="45" spans="1:47" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>9</v>
@@ -7851,7 +8046,7 @@
     </row>
     <row r="46" spans="1:47" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -7994,7 +8189,7 @@
     </row>
     <row r="47" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>9</v>
@@ -8137,7 +8332,7 @@
     </row>
     <row r="48" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>9</v>
@@ -8280,7 +8475,7 @@
     </row>
     <row r="49" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>9</v>
@@ -8423,7 +8618,7 @@
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -8464,1279 +8659,1279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="e">
+      <c r="A1" s="17" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="23">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="23">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="23">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="23">
+        <v>151</v>
+      </c>
+      <c r="L7" s="23">
+        <v>48</v>
+      </c>
+      <c r="M7" s="23">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="23">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="24">
+        <v>4268.8580000000002</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2190.2440000000001</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1169.6790000000001</v>
+      </c>
+      <c r="H8" s="24">
+        <v>999.32500000000005</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1540.5920000000001</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1143.9290000000001</v>
+      </c>
+      <c r="K8" s="24">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="L8" s="24">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="24">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="24">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="23">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="23">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="23">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="23">
+        <v>2219.6999999999998</v>
+      </c>
+      <c r="I9" s="23">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="23">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="23">
+        <v>-89.4</v>
+      </c>
+      <c r="L9" s="23">
+        <v>-84.1</v>
+      </c>
+      <c r="M9" s="23">
+        <v>44</v>
+      </c>
+      <c r="N9" s="23">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1176806.6969999999</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1262313.6129999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>414529.82299999997</v>
+      </c>
+      <c r="G10" s="24">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="24">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="24">
+        <v>825702.42099999997</v>
+      </c>
+      <c r="J10" s="24">
+        <v>207059.06099999999</v>
+      </c>
+      <c r="K10" s="24">
+        <v>25993.348999999998</v>
+      </c>
+      <c r="L10" s="24">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="23">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="23">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="23">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="23">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="23">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="23">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="23">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="23">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="23">
+        <v>10</v>
+      </c>
+      <c r="M11" s="23">
+        <v>30.922000000000001</v>
+      </c>
+      <c r="N11" s="23">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="24">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="24">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="24">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="24">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="24">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="24">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="24">
+        <v>85</v>
+      </c>
+      <c r="L12" s="24">
+        <v>98</v>
+      </c>
+      <c r="M12" s="24">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="N12" s="24">
+        <v>22.722000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="23">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>11</v>
+      </c>
+      <c r="G13" s="23">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="23">
+        <v>56</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="24">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="24">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="24">
+        <v>775</v>
+      </c>
+      <c r="H14" s="24">
+        <v>264</v>
+      </c>
+      <c r="I14" s="24">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="24">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="24">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="24">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="23">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="23">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="23">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="23">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="23">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="23">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="23">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="23">
+        <v>772</v>
+      </c>
+      <c r="L15" s="23">
+        <v>341</v>
+      </c>
+      <c r="M15" s="23">
+        <v>111</v>
+      </c>
+      <c r="N15" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="24">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="24">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="24">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="24">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="24">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="24">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="24">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="24">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="24">
+        <v>178</v>
+      </c>
+      <c r="L16" s="24">
+        <v>66</v>
+      </c>
+      <c r="M16" s="24">
+        <v>348</v>
+      </c>
+      <c r="N16" s="24">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="23">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="23">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="23">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="23">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="23">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="23">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="23">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="23">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="23">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="23">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="23">
+        <v>20.789000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="24">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="24">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="24">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="24">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="24">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="24">
+        <v>4864.1000000000004</v>
+      </c>
+      <c r="J18" s="24">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="24">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="24">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="24">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="24">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="23">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="23">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="23">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="23">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="23">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="23">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" s="23">
+        <v>328</v>
+      </c>
+      <c r="N19" s="23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="24">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="24">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="24">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="24">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="24">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="24">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="24">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="24">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="24">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="24">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="24">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="23">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="23">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="E21" s="23">
+        <v>61.082999999999998</v>
+      </c>
+      <c r="F21" s="23">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="G21" s="23">
+        <v>33.743000000000002</v>
+      </c>
+      <c r="H21" s="23">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="I21" s="23">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J21" s="23">
+        <v>36.499000000000002</v>
+      </c>
+      <c r="K21" s="23">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M21" s="23">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="N21" s="23">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="24">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="24">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="24">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="24">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="24">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="24">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="K22" s="24">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="24">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="23">
+        <v>720647.26100000006</v>
+      </c>
+      <c r="D23" s="23">
+        <v>275739.48700000002</v>
+      </c>
+      <c r="E23" s="23">
+        <v>210925.78400000001</v>
+      </c>
+      <c r="F23" s="23">
+        <v>65884.478000000003</v>
+      </c>
+      <c r="G23" s="23">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="23">
+        <v>25493.957999999999</v>
+      </c>
+      <c r="I23" s="23">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="23">
+        <v>39511.928999999996</v>
+      </c>
+      <c r="K23" s="23">
+        <v>2228.2539999999999</v>
+      </c>
+      <c r="L23" s="23">
+        <v>878.59100000000001</v>
+      </c>
+      <c r="M23" s="23">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="N23" s="23">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="24">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="24">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="24">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="24">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="24">
+        <v>902</v>
+      </c>
+      <c r="I24" s="24">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="24">
+        <v>15</v>
+      </c>
+      <c r="L24" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="24">
+        <v>43</v>
+      </c>
+      <c r="N24" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="23">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="23">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="23">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="23">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="23">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="23">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="23">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="23">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="23">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N25" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="24">
+        <v>4356.4840000000004</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1175.9290000000001</v>
+      </c>
+      <c r="E26" s="24">
+        <v>878.67700000000002</v>
+      </c>
+      <c r="F26" s="24">
+        <v>505.16399999999999</v>
+      </c>
+      <c r="G26" s="24">
+        <v>356.76100000000002</v>
+      </c>
+      <c r="H26" s="24">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="24">
+        <v>503.59199999999998</v>
+      </c>
+      <c r="J26" s="24">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="24">
+        <v>18.324000000000002</v>
+      </c>
+      <c r="L26" s="24">
+        <v>75.834999999999994</v>
+      </c>
+      <c r="M26" s="24">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="24">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="23">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="23">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="23">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="23">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H27" s="23">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="23">
+        <v>492.09699999999998</v>
+      </c>
+      <c r="J27" s="23">
+        <v>9.3350000000000009</v>
+      </c>
+      <c r="K27" s="23">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="L27" s="23">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M27" s="23">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="N27" s="23">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="24">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="24">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="24">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="24">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="24">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="24">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="24">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="24">
+        <v>50</v>
+      </c>
+      <c r="L28" s="24">
         <v>7</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="42">
-        <v>17390</v>
-      </c>
-      <c r="D7" s="42">
-        <v>10427</v>
-      </c>
-      <c r="E7" s="42">
-        <v>6061</v>
-      </c>
-      <c r="F7" s="42">
-        <v>3451</v>
-      </c>
-      <c r="G7" s="42">
-        <v>2949</v>
-      </c>
-      <c r="H7" s="42">
-        <v>1466</v>
-      </c>
-      <c r="I7" s="42">
-        <v>2957</v>
-      </c>
-      <c r="J7" s="42">
-        <v>1941</v>
-      </c>
-      <c r="K7" s="42">
-        <v>151</v>
-      </c>
-      <c r="L7" s="42">
-        <v>48</v>
-      </c>
-      <c r="M7" s="42">
-        <v>31.715</v>
-      </c>
-      <c r="N7" s="42">
-        <v>16.427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="43">
-        <v>13142.207</v>
-      </c>
-      <c r="D8" s="43">
-        <v>4268.8580000000002</v>
-      </c>
-      <c r="E8" s="43">
-        <v>2750.683</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2190.2440000000001</v>
-      </c>
-      <c r="G8" s="43">
-        <v>1169.6790000000001</v>
-      </c>
-      <c r="H8" s="43">
-        <v>999.32500000000005</v>
-      </c>
-      <c r="I8" s="43">
-        <v>1540.5920000000001</v>
-      </c>
-      <c r="J8" s="43">
-        <v>1143.9290000000001</v>
-      </c>
-      <c r="K8" s="43">
-        <v>40.411999999999999</v>
-      </c>
-      <c r="L8" s="43">
-        <v>46.99</v>
-      </c>
-      <c r="M8" s="43">
-        <v>17.47</v>
-      </c>
-      <c r="N8" s="43">
-        <v>15.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="42">
-        <v>32184.7</v>
-      </c>
-      <c r="D9" s="42">
-        <v>15967.8</v>
-      </c>
-      <c r="E9" s="42">
-        <v>9208.1</v>
-      </c>
-      <c r="F9" s="42">
-        <v>5799.6</v>
-      </c>
-      <c r="G9" s="42">
-        <v>4169.7</v>
-      </c>
-      <c r="H9" s="42">
-        <v>2219.6999999999998</v>
-      </c>
-      <c r="I9" s="42">
-        <v>5127.8</v>
-      </c>
-      <c r="J9" s="42">
-        <v>3664</v>
-      </c>
-      <c r="K9" s="42">
-        <v>-89.4</v>
-      </c>
-      <c r="L9" s="42">
-        <v>-84.1</v>
-      </c>
-      <c r="M9" s="42">
-        <v>44</v>
-      </c>
-      <c r="N9" s="42">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="M28" s="24">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="24">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="23">
+        <v>23031.416700000002</v>
+      </c>
+      <c r="D29" s="23">
+        <v>80032.204400000002</v>
+      </c>
+      <c r="E29" s="23">
+        <v>7470.1342000000004</v>
+      </c>
+      <c r="F29" s="23">
+        <v>28686.775900000001</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="43">
-        <v>4296151.79</v>
-      </c>
-      <c r="D10" s="43">
-        <v>1176806.6969999999</v>
-      </c>
-      <c r="E10" s="43">
-        <v>1262313.6129999999</v>
-      </c>
-      <c r="F10" s="43">
-        <v>414529.82299999997</v>
-      </c>
-      <c r="G10" s="43">
-        <v>410617.86</v>
-      </c>
-      <c r="H10" s="43">
-        <v>197186.617</v>
-      </c>
-      <c r="I10" s="43">
-        <v>825702.42099999997</v>
-      </c>
-      <c r="J10" s="43">
-        <v>207059.06099999999</v>
-      </c>
-      <c r="K10" s="43">
-        <v>25993.348999999998</v>
-      </c>
-      <c r="L10" s="43">
-        <v>10284.14</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="42">
-        <v>155577</v>
-      </c>
-      <c r="D11" s="42">
-        <v>41847</v>
-      </c>
-      <c r="E11" s="42">
-        <v>40096</v>
-      </c>
-      <c r="F11" s="42">
-        <v>17707</v>
-      </c>
-      <c r="G11" s="42">
-        <v>14359</v>
-      </c>
-      <c r="H11" s="42">
-        <v>4980</v>
-      </c>
-      <c r="I11" s="42">
-        <v>25779</v>
-      </c>
-      <c r="J11" s="42">
-        <v>12717</v>
-      </c>
-      <c r="K11" s="42">
-        <v>-42</v>
-      </c>
-      <c r="L11" s="42">
-        <v>10</v>
-      </c>
-      <c r="M11" s="42">
-        <v>30.922000000000001</v>
-      </c>
-      <c r="N11" s="42">
-        <v>11.698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="43">
-        <v>41360</v>
-      </c>
-      <c r="D12" s="43">
-        <v>92114</v>
-      </c>
-      <c r="E12" s="43">
-        <v>18022</v>
-      </c>
-      <c r="F12" s="43">
-        <v>60233</v>
-      </c>
-      <c r="G12" s="43">
-        <v>6417</v>
-      </c>
-      <c r="H12" s="43">
-        <v>16429</v>
-      </c>
-      <c r="I12" s="43">
-        <v>11520</v>
-      </c>
-      <c r="J12" s="43">
-        <v>43707</v>
-      </c>
-      <c r="K12" s="43">
-        <v>85</v>
-      </c>
-      <c r="L12" s="43">
-        <v>98</v>
-      </c>
-      <c r="M12" s="43">
-        <v>11.451000000000001</v>
-      </c>
-      <c r="N12" s="43">
-        <v>22.722000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="42">
-        <v>429.8</v>
-      </c>
-      <c r="D13" s="42">
-        <v>45.4</v>
-      </c>
-      <c r="E13" s="42">
-        <v>106.1</v>
-      </c>
-      <c r="F13" s="42">
-        <v>11</v>
-      </c>
-      <c r="G13" s="42">
-        <v>50.2</v>
-      </c>
-      <c r="H13" s="42">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I13" s="42">
-        <v>56</v>
-      </c>
-      <c r="J13" s="42">
-        <v>1.8</v>
-      </c>
-      <c r="K13" s="42">
-        <v>-0.1</v>
-      </c>
-      <c r="L13" s="42">
-        <v>0</v>
-      </c>
-      <c r="M13" s="42">
-        <v>3.1</v>
-      </c>
-      <c r="N13" s="42">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="43">
-        <v>7559</v>
-      </c>
-      <c r="D14" s="43">
-        <v>1835</v>
-      </c>
-      <c r="E14" s="43">
-        <v>2022</v>
-      </c>
-      <c r="F14" s="43">
-        <v>1315</v>
-      </c>
-      <c r="G14" s="43">
-        <v>775</v>
-      </c>
-      <c r="H14" s="43">
-        <v>264</v>
-      </c>
-      <c r="I14" s="43">
-        <v>1266</v>
-      </c>
-      <c r="J14" s="43">
-        <v>1056</v>
-      </c>
-      <c r="K14" s="43">
-        <v>-19</v>
-      </c>
-      <c r="L14" s="43">
-        <v>-5</v>
-      </c>
-      <c r="M14" s="43">
-        <v>12.8</v>
-      </c>
-      <c r="N14" s="43">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="42">
-        <v>64869</v>
-      </c>
-      <c r="D15" s="42">
-        <v>26029</v>
-      </c>
-      <c r="E15" s="42">
-        <v>19595</v>
-      </c>
-      <c r="F15" s="42">
-        <v>12412</v>
-      </c>
-      <c r="G15" s="42">
-        <v>8882</v>
-      </c>
-      <c r="H15" s="42">
-        <v>4218</v>
-      </c>
-      <c r="I15" s="42">
-        <v>9941</v>
-      </c>
-      <c r="J15" s="42">
-        <v>7853</v>
-      </c>
-      <c r="K15" s="42">
-        <v>772</v>
-      </c>
-      <c r="L15" s="42">
-        <v>341</v>
-      </c>
-      <c r="M15" s="42">
-        <v>111</v>
-      </c>
-      <c r="N15" s="42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="43">
-        <v>137727</v>
-      </c>
-      <c r="D16" s="43">
-        <v>46535</v>
-      </c>
-      <c r="E16" s="43">
-        <v>45580</v>
-      </c>
-      <c r="F16" s="43">
-        <v>22858</v>
-      </c>
-      <c r="G16" s="43">
-        <v>24028</v>
-      </c>
-      <c r="H16" s="43">
-        <v>8909</v>
-      </c>
-      <c r="I16" s="43">
-        <v>21374</v>
-      </c>
-      <c r="J16" s="43">
-        <v>13883</v>
-      </c>
-      <c r="K16" s="43">
-        <v>178</v>
-      </c>
-      <c r="L16" s="43">
-        <v>66</v>
-      </c>
-      <c r="M16" s="43">
-        <v>348</v>
-      </c>
-      <c r="N16" s="43">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="42">
-        <v>1561214</v>
-      </c>
-      <c r="D17" s="42">
-        <v>950652</v>
-      </c>
-      <c r="E17" s="42">
-        <v>392029</v>
-      </c>
-      <c r="F17" s="42">
-        <v>450794</v>
-      </c>
-      <c r="G17" s="42">
-        <v>89594</v>
-      </c>
-      <c r="H17" s="42">
-        <v>149504</v>
-      </c>
-      <c r="I17" s="42">
-        <v>294084</v>
-      </c>
-      <c r="J17" s="42">
-        <v>298569</v>
-      </c>
-      <c r="K17" s="42">
-        <v>8351</v>
-      </c>
-      <c r="L17" s="42">
-        <v>2721</v>
-      </c>
-      <c r="M17" s="42">
-        <v>16.291</v>
-      </c>
-      <c r="N17" s="42">
-        <v>20.789000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="43">
-        <v>50506.5</v>
-      </c>
-      <c r="D18" s="43">
-        <v>25044.1</v>
-      </c>
-      <c r="E18" s="43">
-        <v>10896.2</v>
-      </c>
-      <c r="F18" s="43">
-        <v>8888.5</v>
-      </c>
-      <c r="G18" s="43">
-        <v>5723.3</v>
-      </c>
-      <c r="H18" s="43">
-        <v>4034.3</v>
-      </c>
-      <c r="I18" s="43">
-        <v>4864.1000000000004</v>
-      </c>
-      <c r="J18" s="43">
-        <v>4486.5</v>
-      </c>
-      <c r="K18" s="43">
-        <v>308.8</v>
-      </c>
-      <c r="L18" s="43">
-        <v>367.7</v>
-      </c>
-      <c r="M18" s="43">
-        <v>109.7</v>
-      </c>
-      <c r="N18" s="43">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="42">
-        <v>22424500</v>
-      </c>
-      <c r="D19" s="42">
-        <v>9255400</v>
-      </c>
-      <c r="E19" s="42">
-        <v>8516400</v>
-      </c>
-      <c r="F19" s="42">
-        <v>3015900</v>
-      </c>
-      <c r="G19" s="42">
-        <v>2266700</v>
-      </c>
-      <c r="H19" s="42">
-        <v>802700</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="M19" s="42">
-        <v>328</v>
-      </c>
-      <c r="N19" s="42">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="43">
-        <v>144820316</v>
-      </c>
-      <c r="D20" s="43">
-        <v>17629352</v>
-      </c>
-      <c r="E20" s="43">
-        <v>38090317</v>
-      </c>
-      <c r="F20" s="43">
-        <v>6699394</v>
-      </c>
-      <c r="G20" s="43">
-        <v>9391789</v>
-      </c>
-      <c r="H20" s="43">
-        <v>1980796</v>
-      </c>
-      <c r="I20" s="43">
-        <v>28334763</v>
-      </c>
-      <c r="J20" s="43">
-        <v>4673860</v>
-      </c>
-      <c r="K20" s="43">
-        <v>363765</v>
-      </c>
-      <c r="L20" s="43">
-        <v>44738</v>
-      </c>
-      <c r="M20" s="43">
-        <v>175.2</v>
-      </c>
-      <c r="N20" s="43">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="42">
-        <v>245.93</v>
-      </c>
-      <c r="D21" s="42">
-        <v>156.44999999999999</v>
-      </c>
-      <c r="E21" s="42">
-        <v>61.082999999999998</v>
-      </c>
-      <c r="F21" s="42">
-        <v>78.703999999999994</v>
-      </c>
-      <c r="G21" s="42">
-        <v>33.743000000000002</v>
-      </c>
-      <c r="H21" s="42">
-        <v>41.521000000000001</v>
-      </c>
-      <c r="I21" s="42">
-        <v>26.463999999999999</v>
-      </c>
-      <c r="J21" s="42">
-        <v>36.499000000000002</v>
-      </c>
-      <c r="K21" s="42">
-        <v>0.876</v>
-      </c>
-      <c r="L21" s="42">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="M21" s="42">
-        <v>2.8730000000000002</v>
-      </c>
-      <c r="N21" s="42">
-        <v>2.351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="43">
-        <v>2026.5</v>
-      </c>
-      <c r="D22" s="43">
-        <v>215.7</v>
-      </c>
-      <c r="E22" s="43">
-        <v>532.5</v>
-      </c>
-      <c r="F22" s="43">
-        <v>169.2</v>
-      </c>
-      <c r="G22" s="43">
-        <v>126.7</v>
-      </c>
-      <c r="H22" s="43">
-        <v>17.5</v>
-      </c>
-      <c r="I22" s="43">
-        <v>407.4</v>
-      </c>
-      <c r="J22" s="43">
-        <v>151.69999999999999</v>
-      </c>
-      <c r="K22" s="43">
-        <v>-1.5</v>
-      </c>
-      <c r="L22" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="M22" s="43">
-        <v>6.6</v>
-      </c>
-      <c r="N22" s="43">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="42">
-        <v>720647.26100000006</v>
-      </c>
-      <c r="D23" s="42">
-        <v>275739.48700000002</v>
-      </c>
-      <c r="E23" s="42">
-        <v>210925.78400000001</v>
-      </c>
-      <c r="F23" s="42">
-        <v>65884.478000000003</v>
-      </c>
-      <c r="G23" s="42">
-        <v>38561.97</v>
-      </c>
-      <c r="H23" s="42">
-        <v>25493.957999999999</v>
-      </c>
-      <c r="I23" s="42">
-        <v>170135.56</v>
-      </c>
-      <c r="J23" s="42">
-        <v>39511.928999999996</v>
-      </c>
-      <c r="K23" s="42">
-        <v>2228.2539999999999</v>
-      </c>
-      <c r="L23" s="42">
-        <v>878.59100000000001</v>
-      </c>
-      <c r="M23" s="42">
-        <v>155.35499999999999</v>
-      </c>
-      <c r="N23" s="42">
-        <v>118.422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="43">
-        <v>41782</v>
-      </c>
-      <c r="D24" s="43">
-        <v>5784</v>
-      </c>
-      <c r="E24" s="43">
-        <v>9497</v>
-      </c>
-      <c r="F24" s="43">
-        <v>2423</v>
-      </c>
-      <c r="G24" s="43">
-        <v>3475</v>
-      </c>
-      <c r="H24" s="43">
-        <v>902</v>
-      </c>
-      <c r="I24" s="43">
-        <v>6007</v>
-      </c>
-      <c r="J24" s="43">
-        <v>1552</v>
-      </c>
-      <c r="K24" s="43">
-        <v>15</v>
-      </c>
-      <c r="L24" s="43">
-        <v>-31</v>
-      </c>
-      <c r="M24" s="43">
-        <v>43</v>
-      </c>
-      <c r="N24" s="43">
+      <c r="H29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M29" s="23">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="N29" s="23">
+        <v>46.713000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="24">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="24">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="24">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="24">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="24">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="24">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="24">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="24">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="24">
+        <v>59</v>
+      </c>
+      <c r="L30" s="24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="42">
-        <v>56741</v>
-      </c>
-      <c r="D25" s="42">
-        <v>12448</v>
-      </c>
-      <c r="E25" s="42">
-        <v>15300</v>
-      </c>
-      <c r="F25" s="42">
-        <v>6492</v>
-      </c>
-      <c r="G25" s="42">
-        <v>7609</v>
-      </c>
-      <c r="H25" s="42">
-        <v>2019</v>
-      </c>
-      <c r="I25" s="42">
-        <v>7709</v>
-      </c>
-      <c r="J25" s="42">
-        <v>4473</v>
-      </c>
-      <c r="K25" s="42">
-        <v>-18</v>
-      </c>
-      <c r="L25" s="42">
-        <v>0</v>
-      </c>
-      <c r="M25" s="42">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="N25" s="42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="43">
-        <v>4356.4840000000004</v>
-      </c>
-      <c r="D26" s="43">
-        <v>1175.9290000000001</v>
-      </c>
-      <c r="E26" s="43">
-        <v>878.67700000000002</v>
-      </c>
-      <c r="F26" s="43">
-        <v>505.16399999999999</v>
-      </c>
-      <c r="G26" s="43">
-        <v>356.76100000000002</v>
-      </c>
-      <c r="H26" s="43">
-        <v>204.215</v>
-      </c>
-      <c r="I26" s="43">
-        <v>503.59199999999998</v>
-      </c>
-      <c r="J26" s="43">
-        <v>225.114</v>
-      </c>
-      <c r="K26" s="43">
-        <v>18.324000000000002</v>
-      </c>
-      <c r="L26" s="43">
-        <v>75.834999999999994</v>
-      </c>
-      <c r="M26" s="43">
-        <v>12.057</v>
-      </c>
-      <c r="N26" s="43">
-        <v>6.2270000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="42">
-        <v>1907.855</v>
-      </c>
-      <c r="D27" s="42">
-        <v>209.029</v>
-      </c>
-      <c r="E27" s="42">
-        <v>646.14</v>
-      </c>
-      <c r="F27" s="42">
-        <v>55.09</v>
-      </c>
-      <c r="G27" s="42">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="H27" s="42">
-        <v>45.83</v>
-      </c>
-      <c r="I27" s="42">
-        <v>492.09699999999998</v>
-      </c>
-      <c r="J27" s="42">
-        <v>9.3350000000000009</v>
-      </c>
-      <c r="K27" s="42">
-        <v>-2.2650000000000001</v>
-      </c>
-      <c r="L27" s="42">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="M27" s="42">
-        <v>8.5920000000000005</v>
-      </c>
-      <c r="N27" s="42">
-        <v>2.2280000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="43">
-        <v>36741</v>
-      </c>
-      <c r="D28" s="43">
-        <v>15161</v>
-      </c>
-      <c r="E28" s="43">
-        <v>8061</v>
-      </c>
-      <c r="F28" s="43">
-        <v>6833</v>
-      </c>
-      <c r="G28" s="43">
-        <v>3954</v>
-      </c>
-      <c r="H28" s="43">
-        <v>2115</v>
-      </c>
-      <c r="I28" s="43">
-        <v>4057</v>
-      </c>
-      <c r="J28" s="43">
-        <v>4711</v>
-      </c>
-      <c r="K28" s="43">
-        <v>50</v>
-      </c>
-      <c r="L28" s="43">
-        <v>7</v>
-      </c>
-      <c r="M28" s="43">
-        <v>83.8</v>
-      </c>
-      <c r="N28" s="43">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="42">
-        <v>23031.416700000002</v>
-      </c>
-      <c r="D29" s="42">
-        <v>80032.204400000002</v>
-      </c>
-      <c r="E29" s="42">
-        <v>7470.1342000000004</v>
-      </c>
-      <c r="F29" s="42">
-        <v>28686.775900000001</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="L29" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="42">
-        <v>29.100999999999999</v>
-      </c>
-      <c r="N29" s="42">
-        <v>46.713000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="M30" s="24">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="24">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="43">
-        <v>32794</v>
-      </c>
-      <c r="D30" s="43">
-        <v>21282</v>
-      </c>
-      <c r="E30" s="43">
-        <v>12217</v>
-      </c>
-      <c r="F30" s="43">
-        <v>11848</v>
-      </c>
-      <c r="G30" s="43">
-        <v>6748</v>
-      </c>
-      <c r="H30" s="43">
-        <v>4114</v>
-      </c>
-      <c r="I30" s="43">
-        <v>5410</v>
-      </c>
-      <c r="J30" s="43">
-        <v>7721</v>
-      </c>
-      <c r="K30" s="43">
-        <v>59</v>
-      </c>
-      <c r="L30" s="43">
-        <v>13</v>
-      </c>
-      <c r="M30" s="43">
-        <v>96.19</v>
-      </c>
-      <c r="N30" s="43">
-        <v>40.64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="B31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="23">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="23">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="23">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="23">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="23">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="23">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="23">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="23">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="23">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="23">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="23">
+        <v>534</v>
+      </c>
+      <c r="N31" s="23">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="42">
-        <v>515221</v>
-      </c>
-      <c r="D31" s="42">
-        <v>266206</v>
-      </c>
-      <c r="E31" s="42">
-        <v>184192</v>
-      </c>
-      <c r="F31" s="42">
-        <v>143569</v>
-      </c>
-      <c r="G31" s="42">
-        <v>54606</v>
-      </c>
-      <c r="H31" s="42">
-        <v>45877</v>
-      </c>
-      <c r="I31" s="42">
-        <v>120465</v>
-      </c>
-      <c r="J31" s="42">
-        <v>94460</v>
-      </c>
-      <c r="K31" s="42">
-        <v>9121</v>
-      </c>
-      <c r="L31" s="42">
-        <v>3232</v>
-      </c>
-      <c r="M31" s="42">
-        <v>534</v>
-      </c>
-      <c r="N31" s="42">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="B34" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="46" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="B35" s="27" t="s">
         <v>189</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -9792,286 +9987,502 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F99A7CB-9715-40FF-8219-F7E5C2A8CA5B}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="54"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6">
+        <v>64800</v>
+      </c>
+      <c r="C6">
+        <v>185400</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="55">
+        <v>40135000000</v>
+      </c>
+      <c r="C11" s="55">
+        <v>268953000000</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56">
+        <v>268953000000</v>
+      </c>
+      <c r="D12" s="56">
+        <v>106189000000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="57">
+        <f>$D13*($B$11/$D$12)</f>
+        <v>18895640697.24736</v>
+      </c>
+      <c r="C13" s="56">
+        <v>158231000000</v>
+      </c>
+      <c r="D13" s="56">
+        <v>49994000000</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="57">
+        <f t="shared" ref="B14:B16" si="0">$D14*($B$11/$D$12)</f>
+        <v>6824034739.9448147</v>
+      </c>
+      <c r="C14" s="56">
+        <v>38814000000</v>
+      </c>
+      <c r="D14" s="56">
+        <v>18055000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="57">
+        <f t="shared" si="0"/>
+        <v>1877696183.220484</v>
+      </c>
+      <c r="C15" s="56">
+        <v>32690000000</v>
+      </c>
+      <c r="D15" s="56">
+        <v>4968000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="57">
+        <f t="shared" si="0"/>
+        <v>10193909774.08206</v>
+      </c>
+      <c r="C16" s="56">
+        <v>86727000000</v>
+      </c>
+      <c r="D16" s="56">
+        <v>26971000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{27832DD5-B97C-4A39-8065-B5F830932B52}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{AE2EF276-CE66-41BB-AC4F-9F9EC2A961F7}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{4CEDC040-9505-4A7A-BB97-C2971980D06B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="38" width="10.140625" customWidth="1"/>
+    <col min="2" max="39" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2">
-        <f>'OECD TTL'!C49*10^6*About!$A$26</f>
+        <f>'OECD TTL'!C49*10^6*About!$A$41</f>
         <v>441483794392.80725</v>
       </c>
-      <c r="C2">
-        <f>'OECD TTL'!D49*10^6*About!$A$26</f>
-        <v>284473782612.21771</v>
-      </c>
-      <c r="D2">
-        <f>'OECD TTL'!E49*10^6*About!$A$26</f>
+      <c r="C2" s="59">
+        <f>'OECD TTL'!D49*10^6*About!$A$41*('BLS BEA Mining'!B11/SUM('BLS BEA Mining'!B11:C11))</f>
+        <v>36938849988.163109</v>
+      </c>
+      <c r="D2" s="59">
+        <f>'OECD TTL'!D49*10^6*About!$A$41*('BLS BEA Mining'!C11/SUM('BLS BEA Mining'!B11:C11))</f>
+        <v>247534932624.0546</v>
+      </c>
+      <c r="E2">
+        <f>'OECD TTL'!E49*10^6*About!$A$41</f>
         <v>62857069088.715157</v>
       </c>
-      <c r="E2">
-        <f>'OECD TTL'!F49*10^6*About!$A$26</f>
+      <c r="F2">
+        <f>'OECD TTL'!F49*10^6*About!$A$41</f>
         <v>85036777291.92421</v>
       </c>
-      <c r="F2">
-        <f>'OECD TTL'!G49*10^6*About!$A$26</f>
+      <c r="G2">
+        <f>'OECD TTL'!G49*10^6*About!$A$41</f>
         <v>906500351407.70496</v>
       </c>
-      <c r="G2">
-        <f>'OECD TTL'!H49*10^6*About!$A$26</f>
+      <c r="H2">
+        <f>'OECD TTL'!H49*10^6*About!$A$41</f>
         <v>84293507922.216553</v>
       </c>
-      <c r="H2">
-        <f>'OECD TTL'!I49*10^6*About!$A$26</f>
+      <c r="I2">
+        <f>'OECD TTL'!I49*10^6*About!$A$41</f>
         <v>95524595796.925964</v>
       </c>
-      <c r="I2">
-        <f>'OECD TTL'!J49*10^6*About!$A$26</f>
+      <c r="J2">
+        <f>'OECD TTL'!J49*10^6*About!$A$41</f>
         <v>260772275660.39566</v>
       </c>
-      <c r="J2">
-        <f>'OECD TTL'!K49*10^6*About!$A$26</f>
+      <c r="K2">
+        <f>'OECD TTL'!K49*10^6*About!$A$41</f>
         <v>474768371261.97699</v>
       </c>
-      <c r="K2" s="49">
-        <f>'OECD TTL'!L49*10^6*About!$A$26*('OECD Chem Pharma Split'!C$31/SUM('OECD Chem Pharma Split'!$C$31:$D$31))</f>
+      <c r="L2" s="30">
+        <f>'OECD TTL'!L49*10^6*About!$A$41*('OECD Chem Pharma Split'!C$31/SUM('OECD Chem Pharma Split'!$C$31:$D$31))</f>
         <v>501575956307.31726</v>
       </c>
-      <c r="L2" s="49">
-        <f>'OECD TTL'!L49*10^6*About!$A$26*('OECD Chem Pharma Split'!D31/SUM('OECD Chem Pharma Split'!C31:D31))</f>
+      <c r="M2" s="30">
+        <f>'OECD TTL'!L49*10^6*About!$A$41*('OECD Chem Pharma Split'!D31/SUM('OECD Chem Pharma Split'!C31:D31))</f>
         <v>259155836087.32117</v>
       </c>
-      <c r="M2">
-        <f>'OECD TTL'!M49*10^6*About!$A$26</f>
+      <c r="N2">
+        <f>'OECD TTL'!M49*10^6*About!$A$41</f>
         <v>223748975398.38916</v>
       </c>
-      <c r="N2">
-        <f>'OECD TTL'!N49*10^6*About!$A$26</f>
+      <c r="O2">
+        <f>'OECD TTL'!N49*10^6*About!$A$41</f>
         <v>115749117116.49376</v>
       </c>
-      <c r="O2">
-        <f>'OECD TTL'!O49*10^6*About!$A$26</f>
+      <c r="P2">
+        <f>'OECD TTL'!O49*10^6*About!$A$41</f>
         <v>218189421255.85928</v>
       </c>
-      <c r="P2">
-        <f>'OECD TTL'!P49*10^6*About!$A$26</f>
+      <c r="Q2">
+        <f>'OECD TTL'!P49*10^6*About!$A$41</f>
         <v>356069037551.73682</v>
       </c>
-      <c r="Q2">
-        <f>'OECD TTL'!Q49*10^6*About!$A$26</f>
+      <c r="R2">
+        <f>'OECD TTL'!Q49*10^6*About!$A$41</f>
         <v>368946399756.97949</v>
       </c>
-      <c r="R2">
-        <f>'OECD TTL'!R49*10^6*About!$A$26</f>
+      <c r="S2">
+        <f>'OECD TTL'!R49*10^6*About!$A$41</f>
         <v>121331338407.79353</v>
       </c>
-      <c r="S2">
-        <f>'OECD TTL'!S49*10^6*About!$A$26</f>
+      <c r="T2">
+        <f>'OECD TTL'!S49*10^6*About!$A$41</f>
         <v>368950080746.95062</v>
       </c>
-      <c r="T2">
-        <f>'OECD TTL'!T49*10^6*About!$A$26</f>
+      <c r="U2">
+        <f>'OECD TTL'!T49*10^6*About!$A$41</f>
         <v>645529399157.02246</v>
       </c>
-      <c r="U2">
-        <f>'OECD TTL'!U49*10^6*About!$A$26</f>
+      <c r="V2">
+        <f>'OECD TTL'!U49*10^6*About!$A$41</f>
         <v>324491858820.25342</v>
       </c>
-      <c r="V2">
-        <f>'OECD TTL'!V49*10^6*About!$A$26</f>
+      <c r="W2">
+        <f>'OECD TTL'!V49*10^6*About!$A$41</f>
         <v>238992632946.15997</v>
       </c>
-      <c r="W2">
-        <f>'OECD TTL'!W49*10^6*About!$A$26</f>
+      <c r="X2">
+        <f>'OECD TTL'!W49*10^6*About!$A$41</f>
         <v>460724425840.34058</v>
       </c>
-      <c r="X2">
-        <f>'OECD TTL'!X49*10^6*About!$A$26</f>
+      <c r="Y2">
+        <f>'OECD TTL'!X49*10^6*About!$A$41</f>
         <v>1309373273311.197</v>
       </c>
-      <c r="Y2">
-        <f>'OECD TTL'!Y49*10^6*About!$A$26</f>
+      <c r="Z2">
+        <f>'OECD TTL'!Y49*10^6*About!$A$41</f>
         <v>2877559082595.7632</v>
       </c>
-      <c r="Z2">
-        <f>'OECD TTL'!Z49*10^6*About!$A$26</f>
+      <c r="AA2">
+        <f>'OECD TTL'!Z49*10^6*About!$A$41</f>
         <v>1086786328325.8163</v>
       </c>
-      <c r="AA2">
-        <f>'OECD TTL'!AA49*10^6*About!$A$26</f>
+      <c r="AB2">
+        <f>'OECD TTL'!AA49*10^6*About!$A$41</f>
         <v>889011289977.51221</v>
       </c>
-      <c r="AB2">
-        <f>'OECD TTL'!AB49*10^6*About!$A$26</f>
+      <c r="AC2">
+        <f>'OECD TTL'!AB49*10^6*About!$A$41</f>
         <v>636997251876.44775</v>
       </c>
-      <c r="AC2">
-        <f>'OECD TTL'!AC49*10^6*About!$A$26</f>
+      <c r="AD2">
+        <f>'OECD TTL'!AC49*10^6*About!$A$41</f>
         <v>616059587184.04163</v>
       </c>
-      <c r="AD2">
-        <f>'OECD TTL'!AD49*10^6*About!$A$26</f>
+      <c r="AE2">
+        <f>'OECD TTL'!AD49*10^6*About!$A$41</f>
         <v>559992685306.11731</v>
       </c>
-      <c r="AE2">
-        <f>'OECD TTL'!AE49*10^6*About!$A$26</f>
+      <c r="AF2">
+        <f>'OECD TTL'!AE49*10^6*About!$A$41</f>
         <v>2222818006035.854</v>
       </c>
-      <c r="AF2">
-        <f>'OECD TTL'!AF49*10^6*About!$A$26</f>
+      <c r="AG2">
+        <f>'OECD TTL'!AF49*10^6*About!$A$41</f>
         <v>2908355407112.5698</v>
       </c>
-      <c r="AG2">
-        <f>'OECD TTL'!AG49*10^6*About!$A$26</f>
+      <c r="AH2">
+        <f>'OECD TTL'!AG49*10^6*About!$A$41</f>
         <v>3240677990887.5737</v>
       </c>
-      <c r="AH2">
-        <f>'OECD TTL'!AH49*10^6*About!$A$26</f>
+      <c r="AI2">
+        <f>'OECD TTL'!AH49*10^6*About!$A$41</f>
         <v>2430225710797.9595</v>
       </c>
-      <c r="AI2">
-        <f>'OECD TTL'!AI49*10^6*About!$A$26</f>
+      <c r="AJ2">
+        <f>'OECD TTL'!AI49*10^6*About!$A$41</f>
         <v>1263216371380.9558</v>
       </c>
-      <c r="AJ2">
-        <f>'OECD TTL'!AJ49*10^6*About!$A$26</f>
+      <c r="AK2">
+        <f>'OECD TTL'!AJ49*10^6*About!$A$41</f>
         <v>2118931460310.4419</v>
       </c>
-      <c r="AK2">
-        <f>'OECD TTL'!AK49*10^6*About!$A$26</f>
+      <c r="AL2">
+        <f>'OECD TTL'!AK49*10^6*About!$A$41</f>
         <v>775735798121.65369</v>
       </c>
-      <c r="AL2">
-        <f>'OECD TTL'!AL49*10^6*About!$A$26</f>
+      <c r="AM2">
+        <f>'OECD TTL'!AL49*10^6*About!$A$41</f>
         <v>20682998307.294415</v>
       </c>
     </row>
@@ -10079,7 +10490,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L2" formulaRange="1"/>
+    <ignoredError sqref="M2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B7ECB9-37CA-4938-A5A4-550EC34A581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F2E33-8C13-48D8-BC49-7FB86F1B380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39090" yWindow="2070" windowWidth="21840" windowHeight="13725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1590" windowWidth="25560" windowHeight="13725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4822,7 +4822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC40CF3-8B3B-41DC-A935-B8F6C9564C97}">
   <dimension ref="A1:AU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -11248,8 +11248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2D1952-BE7C-42B3-9000-76DE5D57CEFD}">
   <dimension ref="A1:BD36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23643,8 +23643,8 @@
   </sheetPr>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AB3"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24139,6 +24139,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -24361,27 +24381,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CD8766-9D1F-4E4C-8185-DBBA87C26E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731CD8D7-1637-4278-8635-B22DBC258540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D03F10-D7F1-44F2-A272-7445BEC1EDB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24398,23 +24417,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731CD8D7-1637-4278-8635-B22DBC258540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CD8766-9D1F-4E4C-8185-DBBA87C26E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC83A3E-F18B-45F5-B603-904DA9808EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73A17B-DEFA-4C1C-97C2-53CE25266EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35700" yWindow="1050" windowWidth="23700" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2055" windowWidth="19305" windowHeight="14430" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4448,7 +4448,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4636,54 +4636,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4735,9 +4687,56 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5289,222 +5288,222 @@
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="89"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="90"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="111"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="85"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="106"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="85"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="106"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="85"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="106"/>
     </row>
     <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
@@ -11697,186 +11696,186 @@
         <v>42</v>
       </c>
       <c r="B2" s="74"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="93"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="113"/>
+      <c r="AN2" s="113"/>
+      <c r="AO2" s="113"/>
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="113"/>
+      <c r="AR2" s="113"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="113"/>
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="113"/>
+      <c r="BB2" s="113"/>
+      <c r="BC2" s="113"/>
+      <c r="BD2" s="114"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="74"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="115" t="s">
         <v>1160</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="95"/>
-      <c r="AR3" s="95"/>
-      <c r="AS3" s="95"/>
-      <c r="AT3" s="95"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="95"/>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-      <c r="BA3" s="95"/>
-      <c r="BB3" s="95"/>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="96"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116"/>
+      <c r="BC3" s="116"/>
+      <c r="BD3" s="117"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="74"/>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="96"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="117"/>
     </row>
     <row r="5" spans="1:56" ht="189" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
@@ -24070,8 +24069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A108D353-7DA7-4DCD-A9BD-8EFBAA91EA5B}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24330,29 +24329,29 @@
         <v>60687659392.693939</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="116">
+      <c r="G7">
         <f>'OECD TTL EU'!M35</f>
         <v>604921.50000000012</v>
       </c>
-      <c r="H7" s="116">
+      <c r="H7">
         <f>'OECD TTL EU'!N35</f>
         <v>336259.10000000009</v>
       </c>
       <c r="I7" s="29"/>
-      <c r="J7" s="117">
+      <c r="J7" s="100">
         <f>J6</f>
         <v>0.23197874321633313</v>
       </c>
-      <c r="K7" s="117">
+      <c r="K7" s="100">
         <f>K6</f>
         <v>0.76802125678366684</v>
       </c>
-      <c r="L7" s="118"/>
-      <c r="M7" s="117">
+      <c r="L7" s="101"/>
+      <c r="M7" s="100">
         <f>M6</f>
         <v>0.63432911997975383</v>
       </c>
-      <c r="N7" s="117">
+      <c r="N7" s="100">
         <f>N6</f>
         <v>0.36567088002024611</v>
       </c>
@@ -24797,40 +24796,40 @@
       <c r="K26" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="97" t="s">
+      <c r="M26" s="81" t="s">
         <v>1230</v>
       </c>
-      <c r="N26" s="97" t="s">
+      <c r="N26" s="81" t="s">
         <v>1231</v>
       </c>
-      <c r="O26" s="97" t="s">
+      <c r="O26" s="81" t="s">
         <v>1232</v>
       </c>
-      <c r="P26" s="97" t="s">
+      <c r="P26" s="81" t="s">
         <v>1233</v>
       </c>
-      <c r="Q26" s="97" t="s">
+      <c r="Q26" s="81" t="s">
         <v>1234</v>
       </c>
-      <c r="R26" s="97" t="s">
+      <c r="R26" s="81" t="s">
         <v>1235</v>
       </c>
-      <c r="S26" s="97" t="s">
+      <c r="S26" s="81" t="s">
         <v>1236</v>
       </c>
-      <c r="T26" s="97" t="s">
+      <c r="T26" s="81" t="s">
         <v>1237</v>
       </c>
-      <c r="U26" s="97" t="s">
+      <c r="U26" s="81" t="s">
         <v>1238</v>
       </c>
-      <c r="V26" s="97" t="s">
+      <c r="V26" s="81" t="s">
         <v>1239</v>
       </c>
-      <c r="Y26" s="98" t="s">
+      <c r="Y26" s="82" t="s">
         <v>1240</v>
       </c>
-      <c r="Z26" s="99">
+      <c r="Z26" s="83">
         <v>2015</v>
       </c>
     </row>
@@ -24865,38 +24864,38 @@
       <c r="K27" s="42">
         <v>7310806</v>
       </c>
-      <c r="M27" s="100" t="s">
+      <c r="M27" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="N27" s="101">
+      <c r="N27" s="85">
         <v>1306702060.5499315</v>
       </c>
-      <c r="O27" s="101">
+      <c r="O27" s="85">
         <v>148063</v>
       </c>
-      <c r="P27" s="101">
+      <c r="P27" s="85">
         <v>11519410352.717516</v>
       </c>
-      <c r="Q27" s="101">
+      <c r="Q27" s="85">
         <v>22717814.536255758</v>
       </c>
-      <c r="R27" s="101">
+      <c r="R27" s="85">
         <v>431308093.40285647</v>
       </c>
-      <c r="S27" s="101">
+      <c r="S27" s="85">
         <v>7601712988.706522</v>
       </c>
-      <c r="T27" s="101">
-        <v>0</v>
-      </c>
-      <c r="U27" s="101">
+      <c r="T27" s="85">
+        <v>0</v>
+      </c>
+      <c r="U27" s="85">
         <v>3491148228.5713687</v>
       </c>
-      <c r="V27" s="101">
+      <c r="V27" s="85">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="103"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="87"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -24959,10 +24958,10 @@
       <c r="V28">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y28" s="104" t="s">
+      <c r="Y28" s="88" t="s">
         <v>1242</v>
       </c>
-      <c r="Z28" s="105">
+      <c r="Z28" s="89">
         <v>64615.98526307274</v>
       </c>
     </row>
@@ -24997,40 +24996,40 @@
       <c r="K29" s="42">
         <v>129354</v>
       </c>
-      <c r="M29" s="100" t="s">
+      <c r="M29" s="84" t="s">
         <v>1243</v>
       </c>
-      <c r="N29" s="101">
+      <c r="N29" s="85">
         <v>1297267192.8821502</v>
       </c>
-      <c r="O29" s="101">
+      <c r="O29" s="85">
         <v>133723</v>
       </c>
-      <c r="P29" s="101">
+      <c r="P29" s="85">
         <v>11158155930.177727</v>
       </c>
-      <c r="Q29" s="101">
+      <c r="Q29" s="85">
         <v>15478071.442284144</v>
       </c>
-      <c r="R29" s="101">
+      <c r="R29" s="85">
         <v>3400589.4355021538</v>
       </c>
-      <c r="S29" s="101">
+      <c r="S29" s="85">
         <v>7218782754.3940811</v>
       </c>
-      <c r="T29" s="101">
-        <v>0</v>
-      </c>
-      <c r="U29" s="101">
+      <c r="T29" s="85">
+        <v>0</v>
+      </c>
+      <c r="U29" s="85">
         <v>3349165753.2852859</v>
       </c>
-      <c r="V29" s="101">
+      <c r="V29" s="85">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y29" s="106" t="s">
+      <c r="Y29" s="90" t="s">
         <v>1244</v>
       </c>
-      <c r="Z29" s="107">
+      <c r="Z29" s="91">
         <v>26221.561705366206</v>
       </c>
     </row>
@@ -25095,10 +25094,10 @@
       <c r="V30">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y30" s="108" t="s">
+      <c r="Y30" s="92" t="s">
         <v>1246</v>
       </c>
-      <c r="Z30" s="109">
+      <c r="Z30" s="93">
         <v>23404.888504693812</v>
       </c>
     </row>
@@ -25133,40 +25132,40 @@
       <c r="K31" s="42">
         <v>9964</v>
       </c>
-      <c r="M31" s="100" t="s">
+      <c r="M31" s="84" t="s">
         <v>1247</v>
       </c>
-      <c r="N31" s="101">
+      <c r="N31" s="85">
         <v>9545802.0354693029</v>
       </c>
-      <c r="O31" s="101">
+      <c r="O31" s="85">
         <v>14340</v>
       </c>
-      <c r="P31" s="101">
+      <c r="P31" s="85">
         <v>361254908.36018932</v>
       </c>
-      <c r="Q31" s="101">
+      <c r="Q31" s="85">
         <v>7239743.0939716157</v>
       </c>
-      <c r="R31" s="101">
+      <c r="R31" s="85">
         <v>427340739.06143731</v>
       </c>
-      <c r="S31" s="101">
+      <c r="S31" s="85">
         <v>382819215.01538932</v>
       </c>
-      <c r="T31" s="101">
-        <v>0</v>
-      </c>
-      <c r="U31" s="101">
+      <c r="T31" s="85">
+        <v>0</v>
+      </c>
+      <c r="U31" s="85">
         <v>141982453.01575536</v>
       </c>
-      <c r="V31" s="101">
+      <c r="V31" s="85">
         <v>1330197200.5822122</v>
       </c>
-      <c r="Y31" s="110" t="s">
+      <c r="Y31" s="94" t="s">
         <v>1248</v>
       </c>
-      <c r="Z31" s="111">
+      <c r="Z31" s="95">
         <v>14989.535053012718</v>
       </c>
     </row>
@@ -25263,34 +25262,34 @@
       <c r="K33" s="42">
         <v>86727</v>
       </c>
-      <c r="M33" s="100" t="s">
+      <c r="M33" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="N33" s="101">
+      <c r="N33" s="85">
         <v>8266490842.2795811</v>
       </c>
-      <c r="O33" s="101">
+      <c r="O33" s="85">
         <v>53591</v>
       </c>
-      <c r="P33" s="101">
+      <c r="P33" s="85">
         <v>60687659392.693939</v>
       </c>
-      <c r="Q33" s="101">
+      <c r="Q33" s="85">
         <v>4712323815.234766</v>
       </c>
-      <c r="R33" s="101">
+      <c r="R33" s="85">
         <v>72867445.497491658</v>
       </c>
-      <c r="S33" s="101">
+      <c r="S33" s="85">
         <v>14437910094.097101</v>
       </c>
-      <c r="T33" s="101">
-        <v>0</v>
-      </c>
-      <c r="U33" s="101">
+      <c r="T33" s="85">
+        <v>0</v>
+      </c>
+      <c r="U33" s="85">
         <v>2019879400.793005</v>
       </c>
-      <c r="V33" s="101">
+      <c r="V33" s="85">
         <v>90197184581.595901</v>
       </c>
     </row>
@@ -25355,10 +25354,10 @@
       <c r="V34">
         <v>90197184581.595901</v>
       </c>
-      <c r="Y34" s="104" t="s">
+      <c r="Y34" s="88" t="s">
         <v>1242</v>
       </c>
-      <c r="Z34" s="99">
+      <c r="Z34" s="83">
         <v>2015</v>
       </c>
     </row>
@@ -25393,38 +25392,38 @@
       <c r="K35" s="42">
         <v>16137</v>
       </c>
-      <c r="M35" s="100" t="s">
+      <c r="M35" s="84" t="s">
         <v>1251</v>
       </c>
-      <c r="N35" s="101">
+      <c r="N35" s="85">
         <v>7130567441.7257786</v>
       </c>
-      <c r="O35" s="101">
+      <c r="O35" s="85">
         <v>19838</v>
       </c>
-      <c r="P35" s="101">
+      <c r="P35" s="85">
         <v>21590616914.442547</v>
       </c>
-      <c r="Q35" s="101">
+      <c r="Q35" s="85">
         <v>3627610582.7069497</v>
       </c>
-      <c r="R35" s="101">
+      <c r="R35" s="85">
         <v>72867445.497491658</v>
       </c>
-      <c r="S35" s="101">
+      <c r="S35" s="85">
         <v>11830994109.66503</v>
       </c>
-      <c r="T35" s="101">
-        <v>0</v>
-      </c>
-      <c r="U35" s="101">
+      <c r="T35" s="85">
+        <v>0</v>
+      </c>
+      <c r="U35" s="85">
         <v>666753944.41147113</v>
       </c>
-      <c r="V35" s="101">
+      <c r="V35" s="85">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="113"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="97"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -25487,10 +25486,10 @@
       <c r="V36">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y36" s="98" t="s">
+      <c r="Y36" s="82" t="s">
         <v>1253</v>
       </c>
-      <c r="Z36" s="105">
+      <c r="Z36" s="89">
         <v>42130.370628106539</v>
       </c>
     </row>
@@ -25525,40 +25524,40 @@
       <c r="K37" s="42">
         <v>227490</v>
       </c>
-      <c r="M37" s="100" t="s">
+      <c r="M37" s="84" t="s">
         <v>1254</v>
       </c>
-      <c r="N37" s="101">
+      <c r="N37" s="85">
         <v>1261631266.7170815</v>
       </c>
-      <c r="O37" s="101">
+      <c r="O37" s="85">
         <v>33753</v>
       </c>
-      <c r="P37" s="101">
+      <c r="P37" s="85">
         <v>39097039905.733597</v>
       </c>
-      <c r="Q37" s="101">
+      <c r="Q37" s="85">
         <v>1084713232.5278163</v>
       </c>
-      <c r="R37" s="101">
-        <v>0</v>
-      </c>
-      <c r="S37" s="101">
+      <c r="R37" s="85">
+        <v>0</v>
+      </c>
+      <c r="S37" s="85">
         <v>2606915848.9715786</v>
       </c>
-      <c r="T37" s="101">
-        <v>0</v>
-      </c>
-      <c r="U37" s="101">
+      <c r="T37" s="85">
+        <v>0</v>
+      </c>
+      <c r="U37" s="85">
         <v>1353236460.6230078</v>
       </c>
-      <c r="V37" s="101">
+      <c r="V37" s="85">
         <v>45403570467.573082</v>
       </c>
-      <c r="Y37" s="98" t="s">
+      <c r="Y37" s="82" t="s">
         <v>1255</v>
       </c>
-      <c r="Z37" s="105">
+      <c r="Z37" s="89">
         <v>24286.8397775126</v>
       </c>
     </row>
@@ -25655,34 +25654,34 @@
       <c r="K39" s="42">
         <v>490800</v>
       </c>
-      <c r="M39" s="100" t="s">
+      <c r="M39" s="84" t="s">
         <v>1257</v>
       </c>
-      <c r="N39" s="101">
+      <c r="N39" s="85">
         <v>469546162.21027291</v>
       </c>
-      <c r="O39" s="101">
+      <c r="O39" s="85">
         <v>14003</v>
       </c>
-      <c r="P39" s="101">
+      <c r="P39" s="85">
         <v>1521476863.0696039</v>
       </c>
-      <c r="Q39" s="101">
+      <c r="Q39" s="85">
         <v>89872672.890682131</v>
       </c>
-      <c r="R39" s="101">
+      <c r="R39" s="85">
         <v>701088188.61936069</v>
       </c>
-      <c r="S39" s="101">
+      <c r="S39" s="85">
         <v>765961358.06948328</v>
       </c>
-      <c r="T39" s="101">
-        <v>0</v>
-      </c>
-      <c r="U39" s="101">
+      <c r="T39" s="85">
+        <v>0</v>
+      </c>
+      <c r="U39" s="85">
         <v>290797503.93466085</v>
       </c>
-      <c r="V39" s="101">
+      <c r="V39" s="85">
         <v>3838756751.794064</v>
       </c>
       <c r="Y39" t="s">
@@ -25785,34 +25784,34 @@
       <c r="K41" s="42">
         <v>26135</v>
       </c>
-      <c r="M41" s="100" t="s">
+      <c r="M41" s="84" t="s">
         <v>1261</v>
       </c>
-      <c r="N41" s="101">
+      <c r="N41" s="85">
         <v>952797572.37284994</v>
       </c>
-      <c r="O41" s="101">
+      <c r="O41" s="85">
         <v>5507</v>
       </c>
-      <c r="P41" s="101">
+      <c r="P41" s="85">
         <v>2429423437.3547029</v>
       </c>
-      <c r="Q41" s="101">
+      <c r="Q41" s="85">
         <v>998585.25434091256</v>
       </c>
-      <c r="R41" s="101">
-        <v>0</v>
-      </c>
-      <c r="S41" s="101">
+      <c r="R41" s="85">
+        <v>0</v>
+      </c>
+      <c r="S41" s="85">
         <v>949563448.90718198</v>
       </c>
-      <c r="T41" s="101">
-        <v>0</v>
-      </c>
-      <c r="U41" s="101">
+      <c r="T41" s="85">
+        <v>0</v>
+      </c>
+      <c r="U41" s="85">
         <v>316095095.78219879</v>
       </c>
-      <c r="V41" s="101">
+      <c r="V41" s="85">
         <v>4648883646.6712751</v>
       </c>
     </row>
@@ -25909,34 +25908,34 @@
       <c r="K43" s="42">
         <v>46896</v>
       </c>
-      <c r="M43" s="100" t="s">
+      <c r="M43" s="84" t="s">
         <v>1263</v>
       </c>
-      <c r="N43" s="101">
+      <c r="N43" s="85">
         <v>228005085.27106535</v>
       </c>
-      <c r="O43" s="101">
+      <c r="O43" s="85">
         <v>12194</v>
       </c>
-      <c r="P43" s="101">
+      <c r="P43" s="85">
         <v>873853938.769485</v>
       </c>
-      <c r="Q43" s="101">
+      <c r="Q43" s="85">
         <v>89123733.949926436</v>
       </c>
-      <c r="R43" s="101">
+      <c r="R43" s="85">
         <v>701088188.61936069</v>
       </c>
-      <c r="S43" s="101">
+      <c r="S43" s="85">
         <v>558149484.19674885</v>
       </c>
-      <c r="T43" s="101">
-        <v>0</v>
-      </c>
-      <c r="U43" s="101">
+      <c r="T43" s="85">
+        <v>0</v>
+      </c>
+      <c r="U43" s="85">
         <v>189166072.8742767</v>
       </c>
-      <c r="V43" s="101">
+      <c r="V43" s="85">
         <v>2639398697.6808629</v>
       </c>
     </row>
@@ -26033,34 +26032,34 @@
       <c r="K45" s="42">
         <v>121224</v>
       </c>
-      <c r="M45" s="100" t="s">
+      <c r="M45" s="84" t="s">
         <v>1265</v>
       </c>
-      <c r="N45" s="101">
+      <c r="N45" s="85">
         <v>2222486657.5109367</v>
       </c>
-      <c r="O45" s="101">
+      <c r="O45" s="85">
         <v>151154</v>
       </c>
-      <c r="P45" s="101">
+      <c r="P45" s="85">
         <v>27400666701.752556</v>
       </c>
-      <c r="Q45" s="101">
+      <c r="Q45" s="85">
         <v>622617906.08155894</v>
       </c>
-      <c r="R45" s="101">
+      <c r="R45" s="85">
         <v>838710893.05547976</v>
       </c>
-      <c r="S45" s="101">
+      <c r="S45" s="85">
         <v>10031770194.062885</v>
       </c>
-      <c r="T45" s="101">
-        <v>0</v>
-      </c>
-      <c r="U45" s="101">
+      <c r="T45" s="85">
+        <v>0</v>
+      </c>
+      <c r="U45" s="85">
         <v>4236554756.1895924</v>
       </c>
-      <c r="V45" s="101">
+      <c r="V45" s="85">
         <v>45352958262.653008</v>
       </c>
     </row>
@@ -26157,34 +26156,34 @@
       <c r="K47" s="42">
         <v>72921</v>
       </c>
-      <c r="M47" s="100" t="s">
+      <c r="M47" s="84" t="s">
         <v>1267</v>
       </c>
-      <c r="N47" s="101">
+      <c r="N47" s="85">
         <v>1899948233.971308</v>
       </c>
-      <c r="O47" s="101">
+      <c r="O47" s="85">
         <v>131410</v>
       </c>
-      <c r="P47" s="101">
+      <c r="P47" s="85">
         <v>23497086460.520012</v>
       </c>
-      <c r="Q47" s="101">
+      <c r="Q47" s="85">
         <v>521760795.39312679</v>
       </c>
-      <c r="R47" s="101">
+      <c r="R47" s="85">
         <v>483888988.16405404</v>
       </c>
-      <c r="S47" s="101">
+      <c r="S47" s="85">
         <v>8520722346.2728558</v>
       </c>
-      <c r="T47" s="101">
-        <v>0</v>
-      </c>
-      <c r="U47" s="101">
+      <c r="T47" s="85">
+        <v>0</v>
+      </c>
+      <c r="U47" s="85">
         <v>3650632204.7298689</v>
       </c>
-      <c r="V47" s="101">
+      <c r="V47" s="85">
         <v>38574170439.051224</v>
       </c>
     </row>
@@ -26281,34 +26280,34 @@
       <c r="K49" s="42">
         <v>8477</v>
       </c>
-      <c r="M49" s="100" t="s">
+      <c r="M49" s="84" t="s">
         <v>1269</v>
       </c>
-      <c r="N49" s="101">
+      <c r="N49" s="85">
         <v>473257466.17673761</v>
       </c>
-      <c r="O49" s="101">
+      <c r="O49" s="85">
         <v>26802</v>
       </c>
-      <c r="P49" s="101">
+      <c r="P49" s="85">
         <v>5663489273.1745396</v>
       </c>
-      <c r="Q49" s="101">
+      <c r="Q49" s="85">
         <v>100857110.68843216</v>
       </c>
-      <c r="R49" s="101">
+      <c r="R49" s="85">
         <v>354821904.89142573</v>
       </c>
-      <c r="S49" s="101">
+      <c r="S49" s="85">
         <v>1991280609.2443142</v>
       </c>
-      <c r="T49" s="101">
-        <v>0</v>
-      </c>
-      <c r="U49" s="101">
+      <c r="T49" s="85">
+        <v>0</v>
+      </c>
+      <c r="U49" s="85">
         <v>824041350.96202862</v>
       </c>
-      <c r="V49" s="101">
+      <c r="V49" s="85">
         <v>9407774517.1374779</v>
       </c>
     </row>
@@ -26402,34 +26401,34 @@
       <c r="K51" s="42">
         <v>546841</v>
       </c>
-      <c r="M51" s="100" t="s">
+      <c r="M51" s="84" t="s">
         <v>1271</v>
       </c>
-      <c r="N51" s="101">
+      <c r="N51" s="85">
         <v>1678287009.8913183</v>
       </c>
-      <c r="O51" s="101">
+      <c r="O51" s="85">
         <v>44734</v>
       </c>
-      <c r="P51" s="101">
+      <c r="P51" s="85">
         <v>11502895221.353985</v>
       </c>
-      <c r="Q51" s="101">
+      <c r="Q51" s="85">
         <v>717733151.55753088</v>
       </c>
-      <c r="R51" s="101">
+      <c r="R51" s="85">
         <v>15302652.459759692</v>
       </c>
-      <c r="S51" s="101">
+      <c r="S51" s="85">
         <v>4083801384.9274535</v>
       </c>
-      <c r="T51" s="101">
-        <v>0</v>
-      </c>
-      <c r="U51" s="101">
+      <c r="T51" s="85">
+        <v>0</v>
+      </c>
+      <c r="U51" s="85">
         <v>1670738148.1770575</v>
       </c>
-      <c r="V51" s="101">
+      <c r="V51" s="85">
         <v>19668802302.367107</v>
       </c>
     </row>
@@ -26520,34 +26519,34 @@
       <c r="K53" s="42">
         <v>5348</v>
       </c>
-      <c r="M53" s="100" t="s">
+      <c r="M53" s="84" t="s">
         <v>1273</v>
       </c>
-      <c r="N53" s="101">
+      <c r="N53" s="85">
         <v>2106970962.552319</v>
       </c>
-      <c r="O53" s="101">
+      <c r="O53" s="85">
         <v>30047</v>
       </c>
-      <c r="P53" s="101">
+      <c r="P53" s="85">
         <v>5682036551.2180834</v>
       </c>
-      <c r="Q53" s="101">
+      <c r="Q53" s="85">
         <v>707497652.70053649</v>
       </c>
-      <c r="R53" s="101">
+      <c r="R53" s="85">
         <v>566764.90591702564</v>
       </c>
-      <c r="S53" s="101">
+      <c r="S53" s="85">
         <v>1755302406.6754115</v>
       </c>
-      <c r="T53" s="101">
-        <v>0</v>
-      </c>
-      <c r="U53" s="101">
+      <c r="T53" s="85">
+        <v>0</v>
+      </c>
+      <c r="U53" s="85">
         <v>935825806.01349056</v>
       </c>
-      <c r="V53" s="101">
+      <c r="V53" s="85">
         <v>11188230191.06576</v>
       </c>
     </row>
@@ -26638,34 +26637,34 @@
       <c r="K55" s="42">
         <v>27760</v>
       </c>
-      <c r="M55" s="100" t="s">
+      <c r="M55" s="84" t="s">
         <v>1275</v>
       </c>
-      <c r="N55" s="101">
+      <c r="N55" s="85">
         <v>56705031.782545343</v>
       </c>
-      <c r="O55" s="101">
+      <c r="O55" s="85">
         <v>15048</v>
       </c>
-      <c r="P55" s="101">
+      <c r="P55" s="85">
         <v>642601985.01381433</v>
       </c>
-      <c r="Q55" s="101">
+      <c r="Q55" s="85">
         <v>10485145.170579581</v>
       </c>
-      <c r="R55" s="101">
+      <c r="R55" s="85">
         <v>14735887.553842666</v>
       </c>
-      <c r="S55" s="101">
+      <c r="S55" s="85">
         <v>466369137.95732343</v>
       </c>
-      <c r="T55" s="101">
-        <v>0</v>
-      </c>
-      <c r="U55" s="101">
+      <c r="T55" s="85">
+        <v>0</v>
+      </c>
+      <c r="U55" s="85">
         <v>228778011.09896329</v>
       </c>
-      <c r="V55" s="101">
+      <c r="V55" s="85">
         <v>1419690246.5770686</v>
       </c>
     </row>
@@ -26756,34 +26755,34 @@
       <c r="K57" s="42">
         <v>121879</v>
       </c>
-      <c r="M57" s="100" t="s">
+      <c r="M57" s="84" t="s">
         <v>1277</v>
       </c>
-      <c r="N57" s="101">
+      <c r="N57" s="85">
         <v>17429692130.770443</v>
       </c>
-      <c r="O57" s="101">
+      <c r="O57" s="85">
         <v>466386</v>
       </c>
-      <c r="P57" s="101">
+      <c r="P57" s="85">
         <v>128368469303.36765</v>
       </c>
-      <c r="Q57" s="101">
+      <c r="Q57" s="85">
         <v>6190456868.1116009</v>
       </c>
-      <c r="R57" s="101">
+      <c r="R57" s="85">
         <v>2461590164.6931825</v>
       </c>
-      <c r="S57" s="101">
+      <c r="S57" s="85">
         <v>46857003390.229973</v>
       </c>
-      <c r="T57" s="101">
+      <c r="T57" s="85">
         <v>32114865.704496637</v>
       </c>
-      <c r="U57" s="101">
+      <c r="U57" s="85">
         <v>14460515178.179235</v>
       </c>
-      <c r="V57" s="101">
+      <c r="V57" s="85">
         <v>215800308287.05658</v>
       </c>
     </row>
@@ -26874,34 +26873,34 @@
       <c r="K59" s="42">
         <v>32875</v>
       </c>
-      <c r="M59" s="100" t="s">
+      <c r="M59" s="84" t="s">
         <v>321</v>
       </c>
-      <c r="N59" s="101">
+      <c r="N59" s="85">
         <v>78504091490.033295</v>
       </c>
-      <c r="O59" s="101">
+      <c r="O59" s="85">
         <v>1046982</v>
       </c>
-      <c r="P59" s="101">
+      <c r="P59" s="85">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q59" s="101">
+      <c r="Q59" s="85">
         <v>14621035647.746056</v>
       </c>
-      <c r="R59" s="101">
+      <c r="R59" s="85">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S59" s="101">
+      <c r="S59" s="85">
         <v>207189119008.2312</v>
       </c>
-      <c r="T59" s="101">
-        <v>0</v>
-      </c>
-      <c r="U59" s="101">
+      <c r="T59" s="85">
+        <v>0</v>
+      </c>
+      <c r="U59" s="85">
         <v>47523291302.504768</v>
       </c>
-      <c r="V59" s="101">
+      <c r="V59" s="85">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -26992,34 +26991,34 @@
       <c r="K61" s="42">
         <v>229589</v>
       </c>
-      <c r="M61" s="100" t="s">
+      <c r="M61" s="84" t="s">
         <v>1014</v>
       </c>
-      <c r="N61" s="101">
+      <c r="N61" s="85">
         <v>67476297698.493103</v>
       </c>
-      <c r="O61" s="101">
+      <c r="O61" s="85">
         <v>798544</v>
       </c>
-      <c r="P61" s="101">
+      <c r="P61" s="85">
         <v>441742765741.36365</v>
       </c>
-      <c r="Q61" s="101">
+      <c r="Q61" s="85">
         <v>10383039828.323223</v>
       </c>
-      <c r="R61" s="101">
+      <c r="R61" s="85">
         <v>7651054396.3270893</v>
       </c>
-      <c r="S61" s="101">
+      <c r="S61" s="85">
         <v>171867442674.04648</v>
       </c>
-      <c r="T61" s="101">
-        <v>0</v>
-      </c>
-      <c r="U61" s="101">
+      <c r="T61" s="85">
+        <v>0</v>
+      </c>
+      <c r="U61" s="85">
         <v>38643049029.573586</v>
       </c>
-      <c r="V61" s="101">
+      <c r="V61" s="85">
         <v>737764447912.1272</v>
       </c>
     </row>
@@ -27110,34 +27109,34 @@
       <c r="K63" s="42">
         <v>47193</v>
       </c>
-      <c r="M63" s="100" t="s">
+      <c r="M63" s="84" t="s">
         <v>1016</v>
       </c>
-      <c r="N63" s="101">
+      <c r="N63" s="85">
         <v>5059416710.4255381</v>
       </c>
-      <c r="O63" s="101">
+      <c r="O63" s="85">
         <v>84930</v>
       </c>
-      <c r="P63" s="101">
+      <c r="P63" s="85">
         <v>97953802980.534073</v>
       </c>
-      <c r="Q63" s="101">
+      <c r="Q63" s="85">
         <v>3660813542.4137855</v>
       </c>
-      <c r="R63" s="101">
+      <c r="R63" s="85">
         <v>255915836.97198397</v>
       </c>
-      <c r="S63" s="101">
+      <c r="S63" s="85">
         <v>20101780091.966759</v>
       </c>
-      <c r="T63" s="101">
-        <v>0</v>
-      </c>
-      <c r="U63" s="101">
+      <c r="T63" s="85">
+        <v>0</v>
+      </c>
+      <c r="U63" s="85">
         <v>4245598894.5075283</v>
       </c>
-      <c r="V63" s="101">
+      <c r="V63" s="85">
         <v>131277412986.81966</v>
       </c>
     </row>
@@ -27228,34 +27227,34 @@
       <c r="K65" s="42">
         <v>7603</v>
       </c>
-      <c r="M65" s="100" t="s">
+      <c r="M65" s="84" t="s">
         <v>1018</v>
       </c>
-      <c r="N65" s="101">
+      <c r="N65" s="85">
         <v>5648457179.3464718</v>
       </c>
-      <c r="O65" s="101">
+      <c r="O65" s="85">
         <v>128749</v>
       </c>
-      <c r="P65" s="101">
+      <c r="P65" s="85">
         <v>27999579018.642555</v>
       </c>
-      <c r="Q65" s="101">
+      <c r="Q65" s="85">
         <v>577182277.00904739</v>
       </c>
-      <c r="R65" s="101">
+      <c r="R65" s="85">
         <v>1267410240.9736962</v>
       </c>
-      <c r="S65" s="101">
+      <c r="S65" s="85">
         <v>11337027772.73737</v>
       </c>
-      <c r="T65" s="101">
-        <v>0</v>
-      </c>
-      <c r="U65" s="101">
+      <c r="T65" s="85">
+        <v>0</v>
+      </c>
+      <c r="U65" s="85">
         <v>3836592098.3406067</v>
       </c>
-      <c r="V65" s="101">
+      <c r="V65" s="85">
         <v>50666377336.049744</v>
       </c>
     </row>
@@ -27346,34 +27345,34 @@
       <c r="K67" s="42">
         <v>20673</v>
       </c>
-      <c r="M67" s="100" t="s">
+      <c r="M67" s="84" t="s">
         <v>1283</v>
       </c>
-      <c r="N67" s="101">
+      <c r="N67" s="85">
         <v>78504091490.033295</v>
       </c>
-      <c r="O67" s="101">
+      <c r="O67" s="85">
         <v>1046982</v>
       </c>
-      <c r="P67" s="101">
+      <c r="P67" s="85">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q67" s="101">
+      <c r="Q67" s="85">
         <v>14621035647.746056</v>
       </c>
-      <c r="R67" s="101">
+      <c r="R67" s="85">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S67" s="101">
+      <c r="S67" s="85">
         <v>207189119008.2312</v>
       </c>
-      <c r="T67" s="101">
-        <v>0</v>
-      </c>
-      <c r="U67" s="101">
+      <c r="T67" s="85">
+        <v>0</v>
+      </c>
+      <c r="U67" s="85">
         <v>47523291302.504768</v>
       </c>
-      <c r="V67" s="101">
+      <c r="V67" s="85">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -27464,34 +27463,34 @@
       <c r="K69" s="42">
         <v>28010</v>
       </c>
-      <c r="M69" s="100" t="s">
+      <c r="M69" s="84" t="s">
         <v>324</v>
       </c>
-      <c r="N69" s="101">
+      <c r="N69" s="85">
         <v>10890398890.142317</v>
       </c>
-      <c r="O69" s="101">
+      <c r="O69" s="85">
         <v>308551</v>
       </c>
-      <c r="P69" s="101">
+      <c r="P69" s="85">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q69" s="101">
+      <c r="Q69" s="85">
         <v>937172261.19894636</v>
       </c>
-      <c r="R69" s="101">
+      <c r="R69" s="85">
         <v>735583151.50594342</v>
       </c>
-      <c r="S69" s="101">
+      <c r="S69" s="85">
         <v>26612571643.637161</v>
       </c>
-      <c r="T69" s="101">
-        <v>0</v>
-      </c>
-      <c r="U69" s="101">
+      <c r="T69" s="85">
+        <v>0</v>
+      </c>
+      <c r="U69" s="85">
         <v>9113191707.005558</v>
       </c>
-      <c r="V69" s="101">
+      <c r="V69" s="85">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -27564,34 +27563,34 @@
       <c r="K71" s="42">
         <v>532970</v>
       </c>
-      <c r="M71" s="100" t="s">
+      <c r="M71" s="84" t="s">
         <v>1032</v>
       </c>
-      <c r="N71" s="101">
+      <c r="N71" s="85">
         <v>10890398890.142317</v>
       </c>
-      <c r="O71" s="101">
+      <c r="O71" s="85">
         <v>308551</v>
       </c>
-      <c r="P71" s="101">
+      <c r="P71" s="85">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q71" s="101">
+      <c r="Q71" s="85">
         <v>937172261.19894636</v>
       </c>
-      <c r="R71" s="101">
+      <c r="R71" s="85">
         <v>735583151.50594342</v>
       </c>
-      <c r="S71" s="101">
+      <c r="S71" s="85">
         <v>26612571643.637161</v>
       </c>
-      <c r="T71" s="101">
-        <v>0</v>
-      </c>
-      <c r="U71" s="101">
+      <c r="T71" s="85">
+        <v>0</v>
+      </c>
+      <c r="U71" s="85">
         <v>9113191707.005558</v>
       </c>
-      <c r="V71" s="101">
+      <c r="V71" s="85">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -27664,34 +27663,34 @@
       <c r="K73" s="42">
         <v>46882</v>
       </c>
-      <c r="M73" s="100" t="s">
+      <c r="M73" s="84" t="s">
         <v>327</v>
       </c>
-      <c r="N73" s="101">
+      <c r="N73" s="85">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O73" s="101">
+      <c r="O73" s="85">
         <v>89709</v>
       </c>
-      <c r="P73" s="101">
+      <c r="P73" s="85">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q73" s="101">
+      <c r="Q73" s="85">
         <v>76035594.968170002</v>
       </c>
-      <c r="R73" s="101">
+      <c r="R73" s="85">
         <v>148771510.22782111</v>
       </c>
-      <c r="S73" s="101">
+      <c r="S73" s="85">
         <v>15070800686.395752</v>
       </c>
-      <c r="T73" s="101">
-        <v>0</v>
-      </c>
-      <c r="U73" s="101">
+      <c r="T73" s="85">
+        <v>0</v>
+      </c>
+      <c r="U73" s="85">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V73" s="101">
+      <c r="V73" s="85">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -27764,34 +27763,34 @@
       <c r="K75" s="42">
         <v>108752</v>
       </c>
-      <c r="M75" s="100" t="s">
+      <c r="M75" s="84" t="s">
         <v>1052</v>
       </c>
-      <c r="N75" s="101">
+      <c r="N75" s="85">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O75" s="101">
+      <c r="O75" s="85">
         <v>89709</v>
       </c>
-      <c r="P75" s="101">
+      <c r="P75" s="85">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q75" s="101">
+      <c r="Q75" s="85">
         <v>76035594.968170002</v>
       </c>
-      <c r="R75" s="101">
+      <c r="R75" s="85">
         <v>148771510.22782111</v>
       </c>
-      <c r="S75" s="101">
+      <c r="S75" s="85">
         <v>15070800686.395752</v>
       </c>
-      <c r="T75" s="101">
-        <v>0</v>
-      </c>
-      <c r="U75" s="101">
+      <c r="T75" s="85">
+        <v>0</v>
+      </c>
+      <c r="U75" s="85">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V75" s="101">
+      <c r="V75" s="85">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -27864,34 +27863,34 @@
       <c r="K77" s="42">
         <v>583890</v>
       </c>
-      <c r="M77" s="100" t="s">
+      <c r="M77" s="84" t="s">
         <v>330</v>
       </c>
-      <c r="N77" s="101">
+      <c r="N77" s="85">
         <v>8687307834.3865585</v>
       </c>
-      <c r="O77" s="101">
+      <c r="O77" s="85">
         <v>797772</v>
       </c>
-      <c r="P77" s="101">
+      <c r="P77" s="85">
         <v>101211167771.59067</v>
       </c>
-      <c r="Q77" s="101">
+      <c r="Q77" s="85">
         <v>2115253215.007638</v>
       </c>
-      <c r="R77" s="101">
+      <c r="R77" s="85">
         <v>1068105430.5352523</v>
       </c>
-      <c r="S77" s="101">
+      <c r="S77" s="85">
         <v>47284001926.415855</v>
       </c>
-      <c r="T77" s="101">
-        <v>0</v>
-      </c>
-      <c r="U77" s="101">
+      <c r="T77" s="85">
+        <v>0</v>
+      </c>
+      <c r="U77" s="85">
         <v>22567169621.563957</v>
       </c>
-      <c r="V77" s="101">
+      <c r="V77" s="85">
         <v>182933803571.49994</v>
       </c>
     </row>
@@ -27964,34 +27963,34 @@
       <c r="K79" s="42">
         <v>-1604</v>
       </c>
-      <c r="M79" s="100" t="s">
+      <c r="M79" s="84" t="s">
         <v>1074</v>
       </c>
-      <c r="N79" s="101">
+      <c r="N79" s="85">
         <v>3280319673.5430574</v>
       </c>
-      <c r="O79" s="101">
+      <c r="O79" s="85">
         <v>455862</v>
       </c>
-      <c r="P79" s="101">
+      <c r="P79" s="85">
         <v>37776744598.702255</v>
       </c>
-      <c r="Q79" s="101">
+      <c r="Q79" s="85">
         <v>699758616.97939444</v>
       </c>
-      <c r="R79" s="101">
+      <c r="R79" s="85">
         <v>457050052.41330284</v>
       </c>
-      <c r="S79" s="101">
+      <c r="S79" s="85">
         <v>22005087530.867695</v>
       </c>
-      <c r="T79" s="101">
-        <v>0</v>
-      </c>
-      <c r="U79" s="101">
+      <c r="T79" s="85">
+        <v>0</v>
+      </c>
+      <c r="U79" s="85">
         <v>11942037769.473236</v>
       </c>
-      <c r="V79" s="101">
+      <c r="V79" s="85">
         <v>76161454103.978943</v>
       </c>
     </row>
@@ -28064,34 +28063,34 @@
       <c r="K81" s="42">
         <v>15519</v>
       </c>
-      <c r="M81" s="100" t="s">
+      <c r="M81" s="84" t="s">
         <v>1076</v>
       </c>
-      <c r="N81" s="101">
+      <c r="N81" s="85">
         <v>3590390056.4097924</v>
       </c>
-      <c r="O81" s="101">
+      <c r="O81" s="85">
         <v>188037</v>
       </c>
-      <c r="P81" s="101">
+      <c r="P81" s="85">
         <v>27947568861.148758</v>
       </c>
-      <c r="Q81" s="101">
+      <c r="Q81" s="85">
         <v>112590487.42693789</v>
       </c>
-      <c r="R81" s="101">
+      <c r="R81" s="85">
         <v>260863677.44606811</v>
       </c>
-      <c r="S81" s="101">
+      <c r="S81" s="85">
         <v>15847402446.86713</v>
       </c>
-      <c r="T81" s="101">
-        <v>0</v>
-      </c>
-      <c r="U81" s="101">
+      <c r="T81" s="85">
+        <v>0</v>
+      </c>
+      <c r="U81" s="85">
         <v>6303530054.0874472</v>
       </c>
-      <c r="V81" s="101">
+      <c r="V81" s="85">
         <v>54062533620.386139</v>
       </c>
     </row>
@@ -28164,34 +28163,34 @@
       <c r="K83" s="42">
         <v>1840595</v>
       </c>
-      <c r="M83" s="100" t="s">
+      <c r="M83" s="84" t="s">
         <v>1078</v>
       </c>
-      <c r="N83" s="101">
+      <c r="N83" s="85">
         <v>1805391977.5152531</v>
       </c>
-      <c r="O83" s="101">
+      <c r="O83" s="85">
         <v>153456</v>
       </c>
-      <c r="P83" s="101">
+      <c r="P83" s="85">
         <v>35382448787.675598</v>
       </c>
-      <c r="Q83" s="101">
+      <c r="Q83" s="85">
         <v>1302654464.2877204</v>
       </c>
-      <c r="R83" s="101">
+      <c r="R83" s="85">
         <v>350191700.67588127</v>
       </c>
-      <c r="S83" s="101">
+      <c r="S83" s="85">
         <v>9374676939.8772049</v>
       </c>
-      <c r="T83" s="101">
-        <v>0</v>
-      </c>
-      <c r="U83" s="101">
+      <c r="T83" s="85">
+        <v>0</v>
+      </c>
+      <c r="U83" s="85">
         <v>4300743926.0165453</v>
       </c>
-      <c r="V83" s="101">
+      <c r="V83" s="85">
         <v>52516261252.048203</v>
       </c>
     </row>
@@ -28264,34 +28263,34 @@
       <c r="K85" s="42">
         <v>571091</v>
       </c>
-      <c r="M85" s="100" t="s">
+      <c r="M85" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="N85" s="101">
+      <c r="N85" s="85">
         <v>237223363.36203495</v>
       </c>
-      <c r="O85" s="101">
+      <c r="O85" s="85">
         <v>30809</v>
       </c>
-      <c r="P85" s="101">
+      <c r="P85" s="85">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q85" s="101">
+      <c r="Q85" s="85">
         <v>36947654.41061376</v>
       </c>
-      <c r="R85" s="101">
+      <c r="R85" s="85">
         <v>66878258.89820902</v>
       </c>
-      <c r="S85" s="101">
+      <c r="S85" s="85">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T85" s="101">
-        <v>0</v>
-      </c>
-      <c r="U85" s="101">
+      <c r="T85" s="85">
+        <v>0</v>
+      </c>
+      <c r="U85" s="85">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V85" s="101">
+      <c r="V85" s="85">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -28364,34 +28363,34 @@
       <c r="K87" s="42">
         <v>99788</v>
       </c>
-      <c r="M87" s="100" t="s">
+      <c r="M87" s="84" t="s">
         <v>1092</v>
       </c>
-      <c r="N87" s="101">
+      <c r="N87" s="85">
         <v>237223363.36203495</v>
       </c>
-      <c r="O87" s="101">
+      <c r="O87" s="85">
         <v>30809</v>
       </c>
-      <c r="P87" s="101">
+      <c r="P87" s="85">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q87" s="101">
+      <c r="Q87" s="85">
         <v>36947654.41061376</v>
       </c>
-      <c r="R87" s="101">
+      <c r="R87" s="85">
         <v>66878258.89820902</v>
       </c>
-      <c r="S87" s="101">
+      <c r="S87" s="85">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T87" s="101">
-        <v>0</v>
-      </c>
-      <c r="U87" s="101">
+      <c r="T87" s="85">
+        <v>0</v>
+      </c>
+      <c r="U87" s="85">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V87" s="101">
+      <c r="V87" s="85">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -28464,34 +28463,34 @@
       <c r="K89" s="42">
         <v>260034</v>
       </c>
-      <c r="M89" s="100" t="s">
+      <c r="M89" s="84" t="s">
         <v>1291</v>
       </c>
-      <c r="N89" s="101">
+      <c r="N89" s="85">
         <v>26646384802.299095</v>
       </c>
-      <c r="O89" s="101">
+      <c r="O89" s="85">
         <v>1307162</v>
       </c>
-      <c r="P89" s="101">
+      <c r="P89" s="85">
         <v>166544071748.37201</v>
       </c>
-      <c r="Q89" s="101">
+      <c r="Q89" s="85">
         <v>3164766317.3199368</v>
       </c>
-      <c r="R89" s="101">
+      <c r="R89" s="85">
         <v>2081562082.3276882</v>
       </c>
-      <c r="S89" s="101">
+      <c r="S89" s="85">
         <v>90719512145.805908</v>
       </c>
-      <c r="T89" s="101">
-        <v>0</v>
-      </c>
-      <c r="U89" s="101">
+      <c r="T89" s="85">
+        <v>0</v>
+      </c>
+      <c r="U89" s="85">
         <v>37148673843.856224</v>
       </c>
-      <c r="V89" s="101">
+      <c r="V89" s="85">
         <v>326306278101.98083</v>
       </c>
     </row>
@@ -28564,34 +28563,34 @@
       <c r="K91" s="42">
         <v>129933</v>
       </c>
-      <c r="M91" s="114" t="s">
+      <c r="M91" s="98" t="s">
         <v>1239</v>
       </c>
-      <c r="N91" s="115">
+      <c r="N91" s="99">
         <v>361813089644.73499</v>
       </c>
-      <c r="O91" s="115">
+      <c r="O91" s="99">
         <v>8167207</v>
       </c>
-      <c r="P91" s="115">
+      <c r="P91" s="99">
         <v>2569413515071.1187</v>
       </c>
-      <c r="Q91" s="115">
+      <c r="Q91" s="99">
         <v>71879927946.755615</v>
       </c>
-      <c r="R91" s="115">
+      <c r="R91" s="99">
         <v>41061324239.506859</v>
       </c>
-      <c r="S91" s="115">
+      <c r="S91" s="99">
         <v>1009886171812.8113</v>
       </c>
-      <c r="T91" s="115">
+      <c r="T91" s="99">
         <v>32114865.704496637</v>
       </c>
-      <c r="U91" s="115">
+      <c r="U91" s="99">
         <v>290786808092.05988</v>
       </c>
-      <c r="V91" s="115">
+      <c r="V91" s="99">
         <v>4344881118879.6924</v>
       </c>
     </row>
@@ -29083,9 +29082,9 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="121" spans="6:11" s="113" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="6:11" s="113" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="6:11" s="113" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="6:11" s="97" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="6:11" s="97" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="6:11" s="97" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{16E525DD-B467-45DA-B8F8-C50D1DBF1AE0}"/>
@@ -29104,7 +29103,7 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -29427,6 +29426,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -29649,27 +29668,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CD8766-9D1F-4E4C-8185-DBBA87C26E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731CD8D7-1637-4278-8635-B22DBC258540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D03F10-D7F1-44F2-A272-7445BEC1EDB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29686,23 +29704,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731CD8D7-1637-4278-8635-B22DBC258540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CD8766-9D1F-4E4C-8185-DBBA87C26E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BObIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\io-model NEWEST EU FILES\BObIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73A17B-DEFA-4C1C-97C2-53CE25266EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B7FE6-3A81-4816-9153-7F14E4EFFCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2055" windowWidth="19305" windowHeight="14430" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12645" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1294">
   <si>
     <t>Source:</t>
   </si>
@@ -3692,9 +3692,6 @@
   </si>
   <si>
     <t>TOTAL OUTPUT: Output at basic prices</t>
-  </si>
-  <si>
-    <t>Output EU</t>
   </si>
   <si>
     <t>2012 USD per 2018 USD</t>
@@ -5112,7 +5109,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5197,7 +5194,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5233,7 +5230,7 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="B39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -24069,7 +24066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A108D353-7DA7-4DCD-A9BD-8EFBAA91EA5B}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J7" sqref="J7:O8"/>
     </sheetView>
   </sheetViews>
@@ -24252,7 +24249,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>167</v>
@@ -24699,30 +24696,30 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G14" t="s">
         <v>1220</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>1221</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>1222</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>1223</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>1224</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>1225</v>
-      </c>
-      <c r="R14" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -24750,7 +24747,7 @@
         <v>209</v>
       </c>
       <c r="M23" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -24758,7 +24755,7 @@
         <v>210</v>
       </c>
       <c r="M24" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -24797,37 +24794,37 @@
         <v>174</v>
       </c>
       <c r="M26" s="81" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N26" s="81" t="s">
         <v>1230</v>
       </c>
-      <c r="N26" s="81" t="s">
+      <c r="O26" s="81" t="s">
         <v>1231</v>
       </c>
-      <c r="O26" s="81" t="s">
+      <c r="P26" s="81" t="s">
         <v>1232</v>
       </c>
-      <c r="P26" s="81" t="s">
+      <c r="Q26" s="81" t="s">
         <v>1233</v>
       </c>
-      <c r="Q26" s="81" t="s">
+      <c r="R26" s="81" t="s">
         <v>1234</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="S26" s="81" t="s">
         <v>1235</v>
       </c>
-      <c r="S26" s="81" t="s">
+      <c r="T26" s="81" t="s">
         <v>1236</v>
       </c>
-      <c r="T26" s="81" t="s">
+      <c r="U26" s="81" t="s">
         <v>1237</v>
       </c>
-      <c r="U26" s="81" t="s">
+      <c r="V26" s="81" t="s">
         <v>1238</v>
       </c>
-      <c r="V26" s="81" t="s">
+      <c r="Y26" s="82" t="s">
         <v>1239</v>
-      </c>
-      <c r="Y26" s="82" t="s">
-        <v>1240</v>
       </c>
       <c r="Z26" s="83">
         <v>2015</v>
@@ -24929,7 +24926,7 @@
         <v>6793156</v>
       </c>
       <c r="M28" s="58" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="N28">
         <v>1306702060.5499315</v>
@@ -24959,7 +24956,7 @@
         <v>24373147601.484451</v>
       </c>
       <c r="Y28" s="88" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Z28" s="89">
         <v>64615.98526307274</v>
@@ -24997,7 +24994,7 @@
         <v>129354</v>
       </c>
       <c r="M29" s="84" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="N29" s="85">
         <v>1297267192.8821502</v>
@@ -25027,7 +25024,7 @@
         <v>23042384014.617031</v>
       </c>
       <c r="Y29" s="90" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Z29" s="91">
         <v>26221.561705366206</v>
@@ -25065,7 +25062,7 @@
         <v>119390</v>
       </c>
       <c r="M30" s="58" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="N30">
         <v>1297267192.8821502</v>
@@ -25095,7 +25092,7 @@
         <v>23042384014.617031</v>
       </c>
       <c r="Y30" s="92" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="Z30" s="93">
         <v>23404.888504693812</v>
@@ -25133,7 +25130,7 @@
         <v>9964</v>
       </c>
       <c r="M31" s="84" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N31" s="85">
         <v>9545802.0354693029</v>
@@ -25163,7 +25160,7 @@
         <v>1330197200.5822122</v>
       </c>
       <c r="Y31" s="94" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Z31" s="95">
         <v>14989.535053012718</v>
@@ -25201,7 +25198,7 @@
         <v>129835</v>
       </c>
       <c r="M32" s="58" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="N32">
         <v>9545802.0354693029</v>
@@ -25325,7 +25322,7 @@
         <v>26971</v>
       </c>
       <c r="M34" s="58" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="N34">
         <v>8266490842.2795811</v>
@@ -25355,7 +25352,7 @@
         <v>90197184581.595901</v>
       </c>
       <c r="Y34" s="88" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Z34" s="83">
         <v>2015</v>
@@ -25393,7 +25390,7 @@
         <v>16137</v>
       </c>
       <c r="M35" s="84" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N35" s="85">
         <v>7130567441.7257786</v>
@@ -25457,7 +25454,7 @@
         <v>162593</v>
       </c>
       <c r="M36" s="58" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="N36">
         <v>7130567441.7257786</v>
@@ -25487,7 +25484,7 @@
         <v>44919430276.449265</v>
       </c>
       <c r="Y36" s="82" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Z36" s="89">
         <v>42130.370628106539</v>
@@ -25525,7 +25522,7 @@
         <v>227490</v>
       </c>
       <c r="M37" s="84" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="N37" s="85">
         <v>1261631266.7170815</v>
@@ -25555,7 +25552,7 @@
         <v>45403570467.573082</v>
       </c>
       <c r="Y37" s="82" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Z37" s="89">
         <v>24286.8397775126</v>
@@ -25593,7 +25590,7 @@
         <v>1037641</v>
       </c>
       <c r="M38" s="58" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="N38">
         <v>1261631266.7170815</v>
@@ -25655,7 +25652,7 @@
         <v>490800</v>
       </c>
       <c r="M39" s="84" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N39" s="85">
         <v>469546162.21027291</v>
@@ -25685,10 +25682,10 @@
         <v>3838756751.794064</v>
       </c>
       <c r="Y39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Z39" t="s">
         <v>1258</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -25723,7 +25720,7 @@
         <v>11353</v>
       </c>
       <c r="M40" s="58" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="N40">
         <v>469546162.21027291</v>
@@ -25785,7 +25782,7 @@
         <v>26135</v>
       </c>
       <c r="M41" s="84" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="N41" s="85">
         <v>952797572.37284994</v>
@@ -25847,7 +25844,7 @@
         <v>25947</v>
       </c>
       <c r="M42" s="58" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="N42">
         <v>952797572.37284994</v>
@@ -25909,7 +25906,7 @@
         <v>46896</v>
       </c>
       <c r="M43" s="84" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="N43" s="85">
         <v>228005085.27106535</v>
@@ -25971,7 +25968,7 @@
         <v>54260</v>
       </c>
       <c r="M44" s="58" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="N44">
         <v>228005085.27106535</v>
@@ -26033,7 +26030,7 @@
         <v>121224</v>
       </c>
       <c r="M45" s="84" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N45" s="85">
         <v>2222486657.5109367</v>
@@ -26095,7 +26092,7 @@
         <v>28080</v>
       </c>
       <c r="M46" s="58" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N46">
         <v>2222486657.5109367</v>
@@ -26157,7 +26154,7 @@
         <v>72921</v>
       </c>
       <c r="M47" s="84" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="N47" s="85">
         <v>1899948233.971308</v>
@@ -26219,7 +26216,7 @@
         <v>68800</v>
       </c>
       <c r="M48" s="58" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="N48">
         <v>1899948233.971308</v>
@@ -26281,7 +26278,7 @@
         <v>8477</v>
       </c>
       <c r="M49" s="84" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="N49" s="85">
         <v>473257466.17673761</v>
@@ -26343,7 +26340,7 @@
         <v>26708</v>
       </c>
       <c r="M50" s="58" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="N50">
         <v>473257466.17673761</v>
@@ -26402,7 +26399,7 @@
         <v>546841</v>
       </c>
       <c r="M51" s="84" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="N51" s="85">
         <v>1678287009.8913183</v>
@@ -26461,7 +26458,7 @@
         <v>128122</v>
       </c>
       <c r="M52" s="58" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="N52">
         <v>1678287009.8913183</v>
@@ -26520,7 +26517,7 @@
         <v>5348</v>
       </c>
       <c r="M53" s="84" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="N53" s="85">
         <v>2106970962.552319</v>
@@ -26579,7 +26576,7 @@
         <v>1230</v>
       </c>
       <c r="M54" s="58" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N54">
         <v>2106970962.552319</v>
@@ -26638,7 +26635,7 @@
         <v>27760</v>
       </c>
       <c r="M55" s="84" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N55" s="85">
         <v>56705031.782545343</v>
@@ -26697,7 +26694,7 @@
         <v>13421</v>
       </c>
       <c r="M56" s="58" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N56">
         <v>56705031.782545343</v>
@@ -26756,7 +26753,7 @@
         <v>121879</v>
       </c>
       <c r="M57" s="84" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="N57" s="85">
         <v>17429692130.770443</v>
@@ -26815,7 +26812,7 @@
         <v>216206</v>
       </c>
       <c r="M58" s="58" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="N58">
         <v>17429692130.770443</v>
@@ -26933,7 +26930,7 @@
         <v>422674</v>
       </c>
       <c r="M60" s="58" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="N60">
         <v>78504091490.033295</v>
@@ -27051,7 +27048,7 @@
         <v>210828</v>
       </c>
       <c r="M62" s="58" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="N62">
         <v>67476297698.493103</v>
@@ -27169,7 +27166,7 @@
         <v>19867</v>
       </c>
       <c r="M64" s="58" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="N64">
         <v>5059416710.4255381</v>
@@ -27287,7 +27284,7 @@
         <v>52871</v>
       </c>
       <c r="M66" s="58" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="N66">
         <v>5648457179.3464718</v>
@@ -27346,7 +27343,7 @@
         <v>20673</v>
       </c>
       <c r="M67" s="84" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N67" s="85">
         <v>78504091490.033295</v>
@@ -27405,7 +27402,7 @@
         <v>26712</v>
       </c>
       <c r="M68" s="58" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="N68">
         <v>78504091490.033295</v>
@@ -27514,7 +27511,7 @@
         <v>7898</v>
       </c>
       <c r="M70" s="58" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N70">
         <v>10890398890.142317</v>
@@ -27614,7 +27611,7 @@
         <v>103343</v>
       </c>
       <c r="M72" s="58" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N72">
         <v>10890398890.142317</v>
@@ -27714,7 +27711,7 @@
         <v>273993</v>
       </c>
       <c r="M74" s="58" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N74">
         <v>6782897653.2705154</v>
@@ -27814,7 +27811,7 @@
         <v>2577118</v>
       </c>
       <c r="M76" s="58" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N76">
         <v>6782897653.2705154</v>
@@ -27914,7 +27911,7 @@
         <v>306900</v>
       </c>
       <c r="M78" s="58" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="N78">
         <v>8687307834.3865585</v>
@@ -28014,7 +28011,7 @@
         <v>263076</v>
       </c>
       <c r="M80" s="58" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="N80">
         <v>3280319673.5430574</v>
@@ -28114,7 +28111,7 @@
         <v>1993228</v>
       </c>
       <c r="M82" s="58" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N82">
         <v>3590390056.4097924</v>
@@ -28214,7 +28211,7 @@
         <v>152633</v>
       </c>
       <c r="M84" s="58" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="N84">
         <v>1805391977.5152531</v>
@@ -28314,7 +28311,7 @@
         <v>404035</v>
       </c>
       <c r="M86" s="58" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="N86">
         <v>237223363.36203495</v>
@@ -28414,7 +28411,7 @@
         <v>44213</v>
       </c>
       <c r="M88" s="58" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="N88">
         <v>237223363.36203495</v>
@@ -28464,7 +28461,7 @@
         <v>260034</v>
       </c>
       <c r="M89" s="84" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="N89" s="85">
         <v>26646384802.299095</v>
@@ -28514,7 +28511,7 @@
         <v>37122</v>
       </c>
       <c r="M90" s="58" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N90">
         <v>26646384802.299095</v>
@@ -28564,7 +28561,7 @@
         <v>129933</v>
       </c>
       <c r="M91" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="N91" s="99">
         <v>361813089644.73499</v>
@@ -29103,8 +29100,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29248,7 +29245,7 @@
     </row>
     <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1217</v>
+        <v>171</v>
       </c>
       <c r="B2">
         <f>'OECD TTL EU'!C35*10^6*About!$A$39</f>
@@ -29426,26 +29423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -29668,26 +29645,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CD8766-9D1F-4E4C-8185-DBBA87C26E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731CD8D7-1637-4278-8635-B22DBC258540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D03F10-D7F1-44F2-A272-7445BEC1EDB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29704,4 +29682,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731CD8D7-1637-4278-8635-B22DBC258540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CD8766-9D1F-4E4C-8185-DBBA87C26E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>